--- a/doc/thesis/pictures/resultate/loesung0/Artefakte.xlsx
+++ b/doc/thesis/pictures/resultate/loesung0/Artefakte.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Schwammberger\Documents\GitHub\PFSSCompression\doc\thesis\pictures\resultate\loesung0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas Schwammberger\Documents\GitHub\PFSSCompression\doc\thesis\pictures\resultate\loesung1\loesung1-0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8796,11 +8796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="310261320"/>
-        <c:axId val="310254656"/>
+        <c:axId val="311967800"/>
+        <c:axId val="311969760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="310261320"/>
+        <c:axId val="311967800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8838,12 +8838,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310254656"/>
+        <c:crossAx val="311969760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="310254656"/>
+        <c:axId val="311969760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8890,7 +8890,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310261320"/>
+        <c:crossAx val="311967800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8980,7 +8980,8477 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.6961650037086155E-2"/>
+          <c:y val="3.4115423932372824E-2"/>
+          <c:w val="0.97476538711232708"/>
+          <c:h val="0.84232939632545933"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ServerSubsampling_artefakte!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Original</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ServerSubsampling_artefakte!$C$2:$C$1339</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1338"/>
+                <c:pt idx="0">
+                  <c:v>-517611300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-515478700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-512138800</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-509444900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-505391500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-504381100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-503425900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-502520000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-501659000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-500838600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-500054600</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-499304300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-498584300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-497887100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-497209500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-496550700</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-495909400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-495284700</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-494675800</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-494082000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-493502200</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-492935900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-492382400</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-491840800</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-491311000</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-490791800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-490283100</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-489784200</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-489293000</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-488809100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-488332400</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-487862500</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-487399600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-486943100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-486493200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-486049400</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-485611600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-485179700</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-484753400</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-484332400</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-483501900</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-482692000</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-481901800</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-481130300</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-480376600</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-479637500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-478912000</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-478199500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-477499400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-476811300</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-476135000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-475470100</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-474815900</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-474172200</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-473538600</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-472914800</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-472300500</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-471695200</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-471099100</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-470511200</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-469930400</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-469356300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-468789000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-468228100</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-467673700</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-467125400</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-466583600</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-466047400</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-465517200</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-464992800</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-464473800</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-463960500</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-463452700</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-462949900</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-462452400</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-461960100</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-461472500</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-460990000</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-460512100</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-460038500</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-459568600</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-459102700</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-458640600</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-458182100</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-457727300</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-457276300</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-456828900</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-456384800</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-455503800</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-454636500</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-453782600</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-452941500</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-452112900</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-451296500</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-450491900</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-449699100</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-448917200</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-448144700</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-447381300</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-446626900</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-445881100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-445143700</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-444415200</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-443694800</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-442982300</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-442277900</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-441581300</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-440892300</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-440210800</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-439537000</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-438870200</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-438210500</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-437557700</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-436911000</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-436269800</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-435634300</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-435004400</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-434379900</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-433760800</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-433147200</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-432538700</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-431935400</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-431337300</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-430744200</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-430156300</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-429573100</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-428994800</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-428421400</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-427852500</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-427288400</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-426728800</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-426173800</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-425623300</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-425077100</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-424534400</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-423995200</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-423459900</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-422928000</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-422399700</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-421875000</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-421353500</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-420835700</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-420321200</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-419810100</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-419302500</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-418798000</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-418296800</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-417798900</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-417304100</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-416812500</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-416324300</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-415839200</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-415357200</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-414878100</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-414402300</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-413456500</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-412522800</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-411599800</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-410686700</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-409783100</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-408888800</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-408003800</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-407127900</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-406261200</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-405403100</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-404554000</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-403713400</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-402881400</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-402057700</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-401242500</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-400435200</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-399636200</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-398845100</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-398061000</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-397283500</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-396512100</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-395747200</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-394988600</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-394236000</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-393489700</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-392749300</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-392014900</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-391286300</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-390563600</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-389846800</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-389135600</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-388430100</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-387730300</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-387036100</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-386347300</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-385664000</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-384986100</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-384313800</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-383645600</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-382982100</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-382322900</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-381667500</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-381016600</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-380369900</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-379727400</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-379089000</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-378454600</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-377824200</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-377198000</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-376575700</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-375957600</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-375343200</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-374732900</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-374126200</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-373523400</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-372924600</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-372329500</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-371738200</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-371150800</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-370567000</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-369986600</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-369410100</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-368836900</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-368266700</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-367699400</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-367135100</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-366573700</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-366015200</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-365459600</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-364906700</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-364356700</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-363809300</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-363265000</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-362723200</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-362184400</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-361648100</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-361114800</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>-360584200</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>-360056200</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>-359530900</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>-359008400</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>-358488400</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>-357971100</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>-357456400</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>-356944400</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>-356434800</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>-355928000</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>-354919300</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>-353920600</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>-352932000</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>-351952600</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>-350981300</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>-350017900</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>-349062200</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>-348114700</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>-347174800</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>-346242500</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-345317900</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-344400700</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-343491200</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>-342589100</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-341694300</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-340806600</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-339926500</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>-339053300</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>-338187300</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>-337328500</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>-336476500</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-335631600</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-334792400</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-333958900</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-333130900</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-332308700</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-331491500</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-330679900</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-329873500</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-329072600</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-328277000</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-327486700</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-326701700</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-325921900</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-325147000</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-324377300</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-323612600</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-322853000</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-322098500</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-321349000</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-320604300</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-319864500</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-319129800</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-318399800</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-317674600</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-316953500</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-316236300</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-315522900</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-314813400</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-314107700</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-313405700</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-312707300</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-312012700</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-311321800</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-310634800</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-309951300</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-309271300</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-308595100</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-307922400</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-307253500</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-306587700</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-305925800</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-305267600</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-304612700</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-303961000</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-303313000</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-302668500</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>-302027600</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>-301389900</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>-300755500</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>-300124500</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>-299497100</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>-298872800</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>-298251600</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>-297633300</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>-297017600</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>-296404500</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>-295794000</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>-295186100</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>-294580900</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>-293978500</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>-293378400</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>-292780900</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>-292186200</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>-291593800</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>-291004000</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>-290416700</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>-289832000</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>-289249800</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>-288670100</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>-288092900</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>-287518100</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>-286945900</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>-286376200</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>-285808600</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>-285243800</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>-284681200</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>-284121100</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>-283563500</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>-283008100</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>-282455100</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>-281904500</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>-281356500</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>-280810600</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>-280267100</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>-279726000</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>-278648300</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>-277579800</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>-276518900</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>-275465200</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>-274419000</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>-273379900</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>-272348300</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>-271323600</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>-270306000</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>-269295400</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>-268291900</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>-267295500</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>-266305800</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>-265322800</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>-264347000</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>-263377800</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>-262415400</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>-261459600</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>-260510400</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>-259567900</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>-258632000</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>-257702400</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>-256779600</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>-255862900</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>-254951600</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>-254045500</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>-253144500</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>-252248400</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>-251357600</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>-250471800</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>-249591100</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>-248715300</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>-247844400</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>-246978600</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>-246117700</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>-245261800</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>-244410600</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>-243564200</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>-242722700</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>-241885900</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>-241054100</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>-240226700</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>-239404100</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>-238586400</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>-237773100</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>-236964400</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>-236160200</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>-235360800</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>-234565700</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>-233775400</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>-232989300</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>-232206700</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>-231427900</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>-230652400</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>-229880800</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>-229112600</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>-228348000</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>-227586800</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>-226829200</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>-226074900</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>-225324100</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>-224576600</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>-223832600</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>-223092200</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>-222355100</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>-221621500</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>-220891100</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>-220164000</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>-219440100</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>-218719800</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>-218002500</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>-217288900</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>-216578300</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>-215870900</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>-215167000</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>-214466000</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>-213768300</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>-213073800</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>-212382700</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>-211694700</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>-211009800</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>-210328100</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>-209649400</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>-208973800</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>-208300900</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>-207630300</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>-206962500</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>-206297200</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>-205634200</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>-204973900</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>-204315900</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>-203660300</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>-203007200</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>-202356400</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>-201708000</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>-201062000</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>-200418300</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>-199777200</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>-199138400</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>-198502000</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>-197867900</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>-197236500</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>-196607300</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>-195980400</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>-195356000</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>-194733800</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>-194113800</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>-193496300</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>-192881000</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>-192268000</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>-191657400</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>-191049000</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>-190443100</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>-189839200</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>-189237800</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>-188638700</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>-188041700</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>-187447100</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>-186854700</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>-186264500</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>-185676600</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>-185090700</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>-184506900</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>-183925300</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>-183345900</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>-182768700</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>-181618100</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>-180474600</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>-179337800</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>-178208100</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>-177085200</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>-175969000</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>-174859700</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>-173756800</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>-172660800</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>-171571300</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>-170488400</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>-169412000</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>-168342300</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>-167278900</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>-166222100</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>-165171600</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>-164127600</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>-163089800</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>-162058200</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>-161033100</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>-160013700</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>-159000600</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>-157993700</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>-156992700</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>-155997900</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>-155009000</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>-154025900</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>-153047400</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>-152073600</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>-151104600</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>-150140300</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>-149180900</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>-148226000</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>-147276100</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>-146330700</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>-145389900</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>-144453900</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>-143522600</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>-142595800</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>-141673700</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>-140756100</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>-139843100</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>-138934500</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>-138030600</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>-137131000</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>-136235800</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>-135345100</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>-134458700</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>-133577000</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>-132699300</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>-131826100</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>-130957400</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>-130092600</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>-129232100</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>-128375900</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>-127524000</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>-126676100</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>-125832400</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>-124993200</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>-124157100</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>-123324400</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>-122495300</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>-121669400</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>-120846700</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>-120027200</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>-119211000</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>-118398500</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>-117588900</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>-116782400</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>-115979300</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>-115179500</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>-114382700</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>-113589100</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>-112798800</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>-112011300</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>-111227200</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>-110446100</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>-109668300</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>-108893500</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>-108121600</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>-107353000</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>-106587200</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>-105824500</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>-105064900</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>-104308500</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>-103554700</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>-102804100</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>-102056600</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>-101311800</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>-100570000</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>-99831260</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>-99095570</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>-98362620</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>-97632750</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>-96905620</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>-96181490</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>-95460290</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>-94742130</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>-94026690</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>-93314140</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>-92603940</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>-91896290</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>-91190750</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>-90487620</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>-89786770</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>-89088190</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>-88392140</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>-87698090</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>-87006230</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>-86316780</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>-85629600</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>-84944460</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>-84261940</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>-83581500</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>-82902980</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>-82226860</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>-81553040</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>-80881260</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>-80211740</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>-79544420</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>-78879270</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>-78216050</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>-77555360</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>-76896590</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>-76239880</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>-75585360</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>-74933140</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>-74282840</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>-73634580</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>-72988540</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>-72344670</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>-71702640</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>-71062770</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>-70424980</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>-69789220</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>-69155560</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>-68523810</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>-67894160</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>-67266540</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>-66640870</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>-66017420</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>-65395700</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>-64776260</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>-64158530</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>-63542990</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>-62929290</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>-62317640</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>-61097990</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>-59886270</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>-58682380</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>-57484750</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>-56293060</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>-55107880</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>-53928760</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>-52756180</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>-51589780</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>-50429550</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>-49275630</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>-48127770</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>-46985900</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>-45850220</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>-44720600</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>-43596720</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>-42478810</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>-41366780</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>-40260710</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>-39160400</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>-38066080</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>-36977040</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>-35894100</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>-34816720</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>-33744830</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>-32678830</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>-31618140</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>-30563100</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>-29513600</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>-28469320</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>-27430670</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>-26397360</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>-25369440</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>-24346770</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>-23329390</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>-22316850</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>-21308810</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>-20305030</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>-19305590</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>-18310390</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>-17319590</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>-16332670</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>-15350120</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>-14371690</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>-13397570</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>-12427690</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>-11461700</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>-10499880</c:v>
+                </c:pt>
+                <c:pt idx="669" formatCode="General">
+                  <c:v>-9542329</c:v>
+                </c:pt>
+                <c:pt idx="670" formatCode="General">
+                  <c:v>-8588812</c:v>
+                </c:pt>
+                <c:pt idx="671" formatCode="General">
+                  <c:v>-7639319</c:v>
+                </c:pt>
+                <c:pt idx="672" formatCode="General">
+                  <c:v>-6693887</c:v>
+                </c:pt>
+                <c:pt idx="673" formatCode="General">
+                  <c:v>-5752621</c:v>
+                </c:pt>
+                <c:pt idx="674" formatCode="General">
+                  <c:v>-4815358</c:v>
+                </c:pt>
+                <c:pt idx="675" formatCode="General">
+                  <c:v>-3881913</c:v>
+                </c:pt>
+                <c:pt idx="676" formatCode="General">
+                  <c:v>-2952677</c:v>
+                </c:pt>
+                <c:pt idx="677" formatCode="General">
+                  <c:v>-2027450</c:v>
+                </c:pt>
+                <c:pt idx="678" formatCode="General">
+                  <c:v>-1106180</c:v>
+                </c:pt>
+                <c:pt idx="679" formatCode="General">
+                  <c:v>-188467</c:v>
+                </c:pt>
+                <c:pt idx="680" formatCode="General">
+                  <c:v>725194</c:v>
+                </c:pt>
+                <c:pt idx="681" formatCode="General">
+                  <c:v>1634770</c:v>
+                </c:pt>
+                <c:pt idx="682" formatCode="General">
+                  <c:v>2540552</c:v>
+                </c:pt>
+                <c:pt idx="683" formatCode="General">
+                  <c:v>3442587</c:v>
+                </c:pt>
+                <c:pt idx="684" formatCode="General">
+                  <c:v>4340838</c:v>
+                </c:pt>
+                <c:pt idx="685" formatCode="General">
+                  <c:v>5235237</c:v>
+                </c:pt>
+                <c:pt idx="686" formatCode="General">
+                  <c:v>6125835</c:v>
+                </c:pt>
+                <c:pt idx="687" formatCode="General">
+                  <c:v>7012805</c:v>
+                </c:pt>
+                <c:pt idx="688" formatCode="General">
+                  <c:v>7895842</c:v>
+                </c:pt>
+                <c:pt idx="689" formatCode="General">
+                  <c:v>8775269</c:v>
+                </c:pt>
+                <c:pt idx="690" formatCode="General">
+                  <c:v>9650861</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>10523120</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>11391500</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>12256200</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>13117360</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>13974820</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>14828790</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>15679270</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>16526490</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>17370730</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>18211930</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>19050250</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>19885850</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>20718410</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>21548080</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>22374990</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>23199100</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>24020230</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>24838580</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>25654380</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>26467040</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>27277180</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>28084160</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>28888620</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>29690410</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>30489400</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>31285640</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>32079170</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>32869810</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>33657530</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>34442580</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>35224820</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>36004400</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>36781430</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>37555520</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>38327200</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>39096170</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>39862490</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>40626230</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>41387280</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>42145660</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>42901480</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>43654840</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>44405530</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>45153510</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>45899400</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>46642640</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>47383420</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>48121480</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>48857110</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>49590400</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>50321100</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>51049340</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>51775040</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>52498250</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>53219100</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>53937400</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>54653210</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>55366690</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>56078090</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>56786910</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>57493600</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>58197980</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>58900600</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>59601020</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>60299700</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>60996270</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>61690870</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>62383580</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>63074340</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>63763390</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>64450440</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>65135390</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>65818480</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>66499810</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>67179140</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>67856630</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>68532120</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>69205780</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>69877530</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>70547430</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>71215700</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>71881980</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>72546420</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>73208810</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>73869500</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>74528410</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>75185320</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>75840500</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>76493660</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>77145070</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>77794750</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>78442640</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>79088660</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>79733080</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>80375460</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>81016090</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>81655080</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>82292060</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>82927570</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>84194690</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>85455160</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>86708550</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>87955020</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>89194650</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>90427580</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>91653800</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>92873150</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>94086050</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>95292330</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>96492140</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>97685450</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>98872380</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>100052800</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>101227000</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>102395000</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>103557800</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>104715400</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>105867700</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>107015000</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>108156900</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>109293600</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>110425100</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>111551800</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>112673400</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>113789800</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>114901300</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>116007500</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>117108800</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>118205200</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>119296500</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>120383200</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>121464900</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>122541700</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>123613900</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>124681000</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>125743300</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>126801000</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>127853900</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>128902100</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>129946000</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>130985200</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>132020000</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>133050200</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>134075700</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>135096600</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>136113300</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>137125300</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>138132900</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>139136400</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>140135500</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>141130200</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>142120500</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>143106600</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>144088600</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>145066300</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>146039700</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>147008900</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>147974100</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>148935100</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>149892600</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>150846500</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>151796800</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>152743900</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>153687400</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>154627400</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>155564000</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>156497000</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>157426700</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>158353000</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>159275700</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>160195400</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>161111500</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>162024600</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>162934300</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>163840600</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>164743600</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>165643300</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>166539900</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>167433100</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>168323100</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>169210100</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>170093900</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>170974500</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>171852000</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>172726200</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>173597600</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>174465800</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>175330800</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>176192800</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>177051800</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>177907800</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>178760700</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>179610400</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>180457500</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>181301700</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>182142600</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>182980800</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>183816000</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>184648200</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>185477500</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>186304000</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>187127600</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>187948600</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>188766500</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>189581800</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>190394300</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>191203800</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>192010500</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>192814700</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>193615800</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>194414600</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>195210300</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>196003400</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>196793700</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>197581200</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>198366200</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>199148400</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>199928500</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>200706000</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>201481600</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>202254700</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>203025500</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>203794000</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>204560400</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>205324400</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>206086100</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>206845500</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>207602800</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>208357700</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>209110700</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>209861300</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>210609700</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>211356000</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>212100200</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>212842100</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>213582000</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>214319600</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>215055400</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>215788900</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>216520400</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>217249600</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>217977000</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>218702300</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>219425600</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>220146900</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>220866000</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>221583200</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>222298200</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>223011100</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>223722000</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>224431000</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>225137800</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>225842900</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>226545600</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>227246800</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>227946000</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>228643100</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>229338200</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>230031300</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>230722700</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>231412000</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>232099300</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>232785000</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>233468800</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>234150600</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>234830500</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>235508600</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>236184600</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>236859000</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>237531400</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>238201900</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>238870800</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>239537500</c:v>
+                </c:pt>
+                <c:pt idx="964">
+                  <c:v>240202500</c:v>
+                </c:pt>
+                <c:pt idx="965">
+                  <c:v>240865700</c:v>
+                </c:pt>
+                <c:pt idx="966">
+                  <c:v>241527100</c:v>
+                </c:pt>
+                <c:pt idx="967">
+                  <c:v>242186700</c:v>
+                </c:pt>
+                <c:pt idx="968">
+                  <c:v>242844500</c:v>
+                </c:pt>
+                <c:pt idx="969">
+                  <c:v>243500400</c:v>
+                </c:pt>
+                <c:pt idx="970">
+                  <c:v>244154700</c:v>
+                </c:pt>
+                <c:pt idx="971">
+                  <c:v>244807300</c:v>
+                </c:pt>
+                <c:pt idx="972">
+                  <c:v>245457800</c:v>
+                </c:pt>
+                <c:pt idx="973">
+                  <c:v>246106700</c:v>
+                </c:pt>
+                <c:pt idx="974">
+                  <c:v>246753500</c:v>
+                </c:pt>
+                <c:pt idx="975">
+                  <c:v>247398900</c:v>
+                </c:pt>
+                <c:pt idx="976">
+                  <c:v>248042500</c:v>
+                </c:pt>
+                <c:pt idx="977">
+                  <c:v>248684300</c:v>
+                </c:pt>
+                <c:pt idx="978">
+                  <c:v>249324400</c:v>
+                </c:pt>
+                <c:pt idx="979">
+                  <c:v>249962700</c:v>
+                </c:pt>
+                <c:pt idx="980">
+                  <c:v>250599400</c:v>
+                </c:pt>
+                <c:pt idx="981">
+                  <c:v>251234500</c:v>
+                </c:pt>
+                <c:pt idx="982">
+                  <c:v>251867700</c:v>
+                </c:pt>
+                <c:pt idx="983">
+                  <c:v>252499200</c:v>
+                </c:pt>
+                <c:pt idx="984">
+                  <c:v>253759300</c:v>
+                </c:pt>
+                <c:pt idx="985">
+                  <c:v>255013600</c:v>
+                </c:pt>
+                <c:pt idx="986">
+                  <c:v>256262100</c:v>
+                </c:pt>
+                <c:pt idx="987">
+                  <c:v>257504800</c:v>
+                </c:pt>
+                <c:pt idx="988">
+                  <c:v>258741800</c:v>
+                </c:pt>
+                <c:pt idx="989">
+                  <c:v>259972800</c:v>
+                </c:pt>
+                <c:pt idx="990">
+                  <c:v>261198500</c:v>
+                </c:pt>
+                <c:pt idx="991">
+                  <c:v>262418300</c:v>
+                </c:pt>
+                <c:pt idx="992">
+                  <c:v>263632600</c:v>
+                </c:pt>
+                <c:pt idx="993">
+                  <c:v>264841200</c:v>
+                </c:pt>
+                <c:pt idx="994">
+                  <c:v>266044400</c:v>
+                </c:pt>
+                <c:pt idx="995">
+                  <c:v>267242200</c:v>
+                </c:pt>
+                <c:pt idx="996">
+                  <c:v>268434500</c:v>
+                </c:pt>
+                <c:pt idx="997">
+                  <c:v>269621600</c:v>
+                </c:pt>
+                <c:pt idx="998">
+                  <c:v>270803100</c:v>
+                </c:pt>
+                <c:pt idx="999">
+                  <c:v>271979300</c:v>
+                </c:pt>
+                <c:pt idx="1000">
+                  <c:v>273150400</c:v>
+                </c:pt>
+                <c:pt idx="1001">
+                  <c:v>274316000</c:v>
+                </c:pt>
+                <c:pt idx="1002">
+                  <c:v>275476500</c:v>
+                </c:pt>
+                <c:pt idx="1003">
+                  <c:v>276631800</c:v>
+                </c:pt>
+                <c:pt idx="1004">
+                  <c:v>277782100</c:v>
+                </c:pt>
+                <c:pt idx="1005">
+                  <c:v>278927100</c:v>
+                </c:pt>
+                <c:pt idx="1006">
+                  <c:v>280067100</c:v>
+                </c:pt>
+                <c:pt idx="1007">
+                  <c:v>281202000</c:v>
+                </c:pt>
+                <c:pt idx="1008">
+                  <c:v>282332000</c:v>
+                </c:pt>
+                <c:pt idx="1009">
+                  <c:v>283457100</c:v>
+                </c:pt>
+                <c:pt idx="1010">
+                  <c:v>284577000</c:v>
+                </c:pt>
+                <c:pt idx="1011">
+                  <c:v>285691800</c:v>
+                </c:pt>
+                <c:pt idx="1012">
+                  <c:v>286802100</c:v>
+                </c:pt>
+                <c:pt idx="1013">
+                  <c:v>287907100</c:v>
+                </c:pt>
+                <c:pt idx="1014">
+                  <c:v>289007600</c:v>
+                </c:pt>
+                <c:pt idx="1015">
+                  <c:v>290103100</c:v>
+                </c:pt>
+                <c:pt idx="1016">
+                  <c:v>291194000</c:v>
+                </c:pt>
+                <c:pt idx="1017">
+                  <c:v>292280000</c:v>
+                </c:pt>
+                <c:pt idx="1018">
+                  <c:v>293361400</c:v>
+                </c:pt>
+                <c:pt idx="1019">
+                  <c:v>294438200</c:v>
+                </c:pt>
+                <c:pt idx="1020">
+                  <c:v>295510300</c:v>
+                </c:pt>
+                <c:pt idx="1021">
+                  <c:v>296577700</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>297640300</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>298698900</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>299752700</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>300802100</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>301847000</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>302887200</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>303923500</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>304955300</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>305982700</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>307005800</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>308024500</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>309039200</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>310050000</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>311057200</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>312060500</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>313060300</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>314056600</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>315049200</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>316038300</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>317023700</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>318005800</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>318984300</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>319959300</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>320930800</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>321898900</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>322863500</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>323824700</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>324782600</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>325737000</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>326688200</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>327635800</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>328580200</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>329521400</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>330459200</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>331393900</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>332325200</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>333253200</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>334178000</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>335099500</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>336017900</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>336933000</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>337845100</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>338754000</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>339659700</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>340562600</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>341462100</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>342358500</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>343252200</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>344142800</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>345030100</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>345914800</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>346796300</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>347674700</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>348550500</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>349423100</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>350292900</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>351159800</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>352023700</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>352884800</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>353743400</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>354598700</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>355451400</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>356301200</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>357148500</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>357992700</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>358834200</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>359673100</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>360509300</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>361342800</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>362173500</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>363001500</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>363826800</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>364649700</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>365469800</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>366287300</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>367102300</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>367914500</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>368724400</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>369532100</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>370337500</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>371140700</c:v>
+                </c:pt>
+                <c:pt idx="1103">
+                  <c:v>371941600</c:v>
+                </c:pt>
+                <c:pt idx="1104">
+                  <c:v>372740400</c:v>
+                </c:pt>
+                <c:pt idx="1105">
+                  <c:v>373536900</c:v>
+                </c:pt>
+                <c:pt idx="1106">
+                  <c:v>374331400</c:v>
+                </c:pt>
+                <c:pt idx="1107">
+                  <c:v>375123500</c:v>
+                </c:pt>
+                <c:pt idx="1108">
+                  <c:v>375913700</c:v>
+                </c:pt>
+                <c:pt idx="1109">
+                  <c:v>376701600</c:v>
+                </c:pt>
+                <c:pt idx="1110">
+                  <c:v>377487300</c:v>
+                </c:pt>
+                <c:pt idx="1111">
+                  <c:v>378270900</c:v>
+                </c:pt>
+                <c:pt idx="1112">
+                  <c:v>379052200</c:v>
+                </c:pt>
+                <c:pt idx="1113">
+                  <c:v>379831600</c:v>
+                </c:pt>
+                <c:pt idx="1114">
+                  <c:v>380608800</c:v>
+                </c:pt>
+                <c:pt idx="1115">
+                  <c:v>381383900</c:v>
+                </c:pt>
+                <c:pt idx="1116">
+                  <c:v>382156700</c:v>
+                </c:pt>
+                <c:pt idx="1117">
+                  <c:v>382927500</c:v>
+                </c:pt>
+                <c:pt idx="1118">
+                  <c:v>383696400</c:v>
+                </c:pt>
+                <c:pt idx="1119">
+                  <c:v>384463000</c:v>
+                </c:pt>
+                <c:pt idx="1120">
+                  <c:v>385227800</c:v>
+                </c:pt>
+                <c:pt idx="1121">
+                  <c:v>385990500</c:v>
+                </c:pt>
+                <c:pt idx="1122">
+                  <c:v>386751200</c:v>
+                </c:pt>
+                <c:pt idx="1123">
+                  <c:v>387509600</c:v>
+                </c:pt>
+                <c:pt idx="1124">
+                  <c:v>388266200</c:v>
+                </c:pt>
+                <c:pt idx="1125">
+                  <c:v>389020600</c:v>
+                </c:pt>
+                <c:pt idx="1126">
+                  <c:v>389773200</c:v>
+                </c:pt>
+                <c:pt idx="1127">
+                  <c:v>390523800</c:v>
+                </c:pt>
+                <c:pt idx="1128">
+                  <c:v>391272300</c:v>
+                </c:pt>
+                <c:pt idx="1129">
+                  <c:v>392019000</c:v>
+                </c:pt>
+                <c:pt idx="1130">
+                  <c:v>392763600</c:v>
+                </c:pt>
+                <c:pt idx="1131">
+                  <c:v>393506200</c:v>
+                </c:pt>
+                <c:pt idx="1132">
+                  <c:v>394247000</c:v>
+                </c:pt>
+                <c:pt idx="1133">
+                  <c:v>394985800</c:v>
+                </c:pt>
+                <c:pt idx="1134">
+                  <c:v>395722700</c:v>
+                </c:pt>
+                <c:pt idx="1135">
+                  <c:v>396457700</c:v>
+                </c:pt>
+                <c:pt idx="1136">
+                  <c:v>397190700</c:v>
+                </c:pt>
+                <c:pt idx="1137">
+                  <c:v>397921800</c:v>
+                </c:pt>
+                <c:pt idx="1138">
+                  <c:v>398651100</c:v>
+                </c:pt>
+                <c:pt idx="1139">
+                  <c:v>399378300</c:v>
+                </c:pt>
+                <c:pt idx="1140">
+                  <c:v>400103800</c:v>
+                </c:pt>
+                <c:pt idx="1141">
+                  <c:v>400827500</c:v>
+                </c:pt>
+                <c:pt idx="1142">
+                  <c:v>401549300</c:v>
+                </c:pt>
+                <c:pt idx="1143">
+                  <c:v>402269300</c:v>
+                </c:pt>
+                <c:pt idx="1144">
+                  <c:v>402987500</c:v>
+                </c:pt>
+                <c:pt idx="1145">
+                  <c:v>403703600</c:v>
+                </c:pt>
+                <c:pt idx="1146">
+                  <c:v>404418100</c:v>
+                </c:pt>
+                <c:pt idx="1147">
+                  <c:v>405130900</c:v>
+                </c:pt>
+                <c:pt idx="1148">
+                  <c:v>405841600</c:v>
+                </c:pt>
+                <c:pt idx="1149">
+                  <c:v>406550700</c:v>
+                </c:pt>
+                <c:pt idx="1150">
+                  <c:v>407258100</c:v>
+                </c:pt>
+                <c:pt idx="1151">
+                  <c:v>407963600</c:v>
+                </c:pt>
+                <c:pt idx="1152">
+                  <c:v>408667200</c:v>
+                </c:pt>
+                <c:pt idx="1153">
+                  <c:v>409369100</c:v>
+                </c:pt>
+                <c:pt idx="1154">
+                  <c:v>410069400</c:v>
+                </c:pt>
+                <c:pt idx="1155">
+                  <c:v>410767900</c:v>
+                </c:pt>
+                <c:pt idx="1156">
+                  <c:v>411464500</c:v>
+                </c:pt>
+                <c:pt idx="1157">
+                  <c:v>412159600</c:v>
+                </c:pt>
+                <c:pt idx="1158">
+                  <c:v>412852800</c:v>
+                </c:pt>
+                <c:pt idx="1159">
+                  <c:v>413544600</c:v>
+                </c:pt>
+                <c:pt idx="1160">
+                  <c:v>414234600</c:v>
+                </c:pt>
+                <c:pt idx="1161">
+                  <c:v>414922600</c:v>
+                </c:pt>
+                <c:pt idx="1162">
+                  <c:v>415609200</c:v>
+                </c:pt>
+                <c:pt idx="1163">
+                  <c:v>416294000</c:v>
+                </c:pt>
+                <c:pt idx="1164">
+                  <c:v>416977200</c:v>
+                </c:pt>
+                <c:pt idx="1165">
+                  <c:v>417658800</c:v>
+                </c:pt>
+                <c:pt idx="1166">
+                  <c:v>418338300</c:v>
+                </c:pt>
+                <c:pt idx="1167">
+                  <c:v>419016500</c:v>
+                </c:pt>
+                <c:pt idx="1168">
+                  <c:v>419693000</c:v>
+                </c:pt>
+                <c:pt idx="1169">
+                  <c:v>420367900</c:v>
+                </c:pt>
+                <c:pt idx="1170">
+                  <c:v>421041300</c:v>
+                </c:pt>
+                <c:pt idx="1171">
+                  <c:v>421713000</c:v>
+                </c:pt>
+                <c:pt idx="1172">
+                  <c:v>422383200</c:v>
+                </c:pt>
+                <c:pt idx="1173">
+                  <c:v>423051500</c:v>
+                </c:pt>
+                <c:pt idx="1174">
+                  <c:v>423718200</c:v>
+                </c:pt>
+                <c:pt idx="1175">
+                  <c:v>424383400</c:v>
+                </c:pt>
+                <c:pt idx="1176">
+                  <c:v>425047000</c:v>
+                </c:pt>
+                <c:pt idx="1177">
+                  <c:v>425709200</c:v>
+                </c:pt>
+                <c:pt idx="1178">
+                  <c:v>426369700</c:v>
+                </c:pt>
+                <c:pt idx="1179">
+                  <c:v>427028700</c:v>
+                </c:pt>
+                <c:pt idx="1180">
+                  <c:v>427686300</c:v>
+                </c:pt>
+                <c:pt idx="1181">
+                  <c:v>428342200</c:v>
+                </c:pt>
+                <c:pt idx="1182">
+                  <c:v>428996400</c:v>
+                </c:pt>
+                <c:pt idx="1183">
+                  <c:v>429649100</c:v>
+                </c:pt>
+                <c:pt idx="1184">
+                  <c:v>430300300</c:v>
+                </c:pt>
+                <c:pt idx="1185">
+                  <c:v>430950200</c:v>
+                </c:pt>
+                <c:pt idx="1186">
+                  <c:v>431598800</c:v>
+                </c:pt>
+                <c:pt idx="1187">
+                  <c:v>432246200</c:v>
+                </c:pt>
+                <c:pt idx="1188">
+                  <c:v>432892200</c:v>
+                </c:pt>
+                <c:pt idx="1189">
+                  <c:v>433536900</c:v>
+                </c:pt>
+                <c:pt idx="1190">
+                  <c:v>434180300</c:v>
+                </c:pt>
+                <c:pt idx="1191">
+                  <c:v>434822200</c:v>
+                </c:pt>
+                <c:pt idx="1192">
+                  <c:v>435462800</c:v>
+                </c:pt>
+                <c:pt idx="1193">
+                  <c:v>436102400</c:v>
+                </c:pt>
+                <c:pt idx="1194">
+                  <c:v>436740700</c:v>
+                </c:pt>
+                <c:pt idx="1195">
+                  <c:v>437377400</c:v>
+                </c:pt>
+                <c:pt idx="1196">
+                  <c:v>438013300</c:v>
+                </c:pt>
+                <c:pt idx="1197">
+                  <c:v>438647600</c:v>
+                </c:pt>
+                <c:pt idx="1198">
+                  <c:v>439280600</c:v>
+                </c:pt>
+                <c:pt idx="1199">
+                  <c:v>439912600</c:v>
+                </c:pt>
+                <c:pt idx="1200">
+                  <c:v>440543200</c:v>
+                </c:pt>
+                <c:pt idx="1201">
+                  <c:v>441172700</c:v>
+                </c:pt>
+                <c:pt idx="1202">
+                  <c:v>441800700</c:v>
+                </c:pt>
+                <c:pt idx="1203">
+                  <c:v>442427600</c:v>
+                </c:pt>
+                <c:pt idx="1204">
+                  <c:v>443053400</c:v>
+                </c:pt>
+                <c:pt idx="1205">
+                  <c:v>443677800</c:v>
+                </c:pt>
+                <c:pt idx="1206">
+                  <c:v>444300900</c:v>
+                </c:pt>
+                <c:pt idx="1207">
+                  <c:v>444922900</c:v>
+                </c:pt>
+                <c:pt idx="1208">
+                  <c:v>445543400</c:v>
+                </c:pt>
+                <c:pt idx="1209">
+                  <c:v>446163100</c:v>
+                </c:pt>
+                <c:pt idx="1210">
+                  <c:v>446781400</c:v>
+                </c:pt>
+                <c:pt idx="1211">
+                  <c:v>447398500</c:v>
+                </c:pt>
+                <c:pt idx="1212">
+                  <c:v>448014400</c:v>
+                </c:pt>
+                <c:pt idx="1213">
+                  <c:v>448629000</c:v>
+                </c:pt>
+                <c:pt idx="1214">
+                  <c:v>449242400</c:v>
+                </c:pt>
+                <c:pt idx="1215">
+                  <c:v>449854800</c:v>
+                </c:pt>
+                <c:pt idx="1216">
+                  <c:v>450465900</c:v>
+                </c:pt>
+                <c:pt idx="1217">
+                  <c:v>451076100</c:v>
+                </c:pt>
+                <c:pt idx="1218">
+                  <c:v>451684800</c:v>
+                </c:pt>
+                <c:pt idx="1219">
+                  <c:v>452292400</c:v>
+                </c:pt>
+                <c:pt idx="1220">
+                  <c:v>452899100</c:v>
+                </c:pt>
+                <c:pt idx="1221">
+                  <c:v>453504500</c:v>
+                </c:pt>
+                <c:pt idx="1222">
+                  <c:v>454108500</c:v>
+                </c:pt>
+                <c:pt idx="1223">
+                  <c:v>454711500</c:v>
+                </c:pt>
+                <c:pt idx="1224">
+                  <c:v>455313500</c:v>
+                </c:pt>
+                <c:pt idx="1225">
+                  <c:v>455914300</c:v>
+                </c:pt>
+                <c:pt idx="1226">
+                  <c:v>456514000</c:v>
+                </c:pt>
+                <c:pt idx="1227">
+                  <c:v>457112400</c:v>
+                </c:pt>
+                <c:pt idx="1228">
+                  <c:v>457709800</c:v>
+                </c:pt>
+                <c:pt idx="1229">
+                  <c:v>458306000</c:v>
+                </c:pt>
+                <c:pt idx="1230">
+                  <c:v>458901200</c:v>
+                </c:pt>
+                <c:pt idx="1231">
+                  <c:v>459495300</c:v>
+                </c:pt>
+                <c:pt idx="1232">
+                  <c:v>460088200</c:v>
+                </c:pt>
+                <c:pt idx="1233">
+                  <c:v>460680200</c:v>
+                </c:pt>
+                <c:pt idx="1234">
+                  <c:v>461270900</c:v>
+                </c:pt>
+                <c:pt idx="1235">
+                  <c:v>461860700</c:v>
+                </c:pt>
+                <c:pt idx="1236">
+                  <c:v>462449100</c:v>
+                </c:pt>
+                <c:pt idx="1237">
+                  <c:v>463036800</c:v>
+                </c:pt>
+                <c:pt idx="1238">
+                  <c:v>463623300</c:v>
+                </c:pt>
+                <c:pt idx="1239">
+                  <c:v>464208400</c:v>
+                </c:pt>
+                <c:pt idx="1240">
+                  <c:v>464792700</c:v>
+                </c:pt>
+                <c:pt idx="1241">
+                  <c:v>465375700</c:v>
+                </c:pt>
+                <c:pt idx="1242">
+                  <c:v>465957900</c:v>
+                </c:pt>
+                <c:pt idx="1243">
+                  <c:v>466538900</c:v>
+                </c:pt>
+                <c:pt idx="1244">
+                  <c:v>467119000</c:v>
+                </c:pt>
+                <c:pt idx="1245">
+                  <c:v>467698000</c:v>
+                </c:pt>
+                <c:pt idx="1246">
+                  <c:v>468275800</c:v>
+                </c:pt>
+                <c:pt idx="1247">
+                  <c:v>469429600</c:v>
+                </c:pt>
+                <c:pt idx="1248">
+                  <c:v>470579100</c:v>
+                </c:pt>
+                <c:pt idx="1249">
+                  <c:v>471724600</c:v>
+                </c:pt>
+                <c:pt idx="1250">
+                  <c:v>472865800</c:v>
+                </c:pt>
+                <c:pt idx="1251">
+                  <c:v>474003100</c:v>
+                </c:pt>
+                <c:pt idx="1252">
+                  <c:v>475136300</c:v>
+                </c:pt>
+                <c:pt idx="1253">
+                  <c:v>476265600</c:v>
+                </c:pt>
+                <c:pt idx="1254">
+                  <c:v>477390800</c:v>
+                </c:pt>
+                <c:pt idx="1255">
+                  <c:v>478512200</c:v>
+                </c:pt>
+                <c:pt idx="1256">
+                  <c:v>479629400</c:v>
+                </c:pt>
+                <c:pt idx="1257">
+                  <c:v>480743100</c:v>
+                </c:pt>
+                <c:pt idx="1258">
+                  <c:v>481853000</c:v>
+                </c:pt>
+                <c:pt idx="1259">
+                  <c:v>482958900</c:v>
+                </c:pt>
+                <c:pt idx="1260">
+                  <c:v>484061100</c:v>
+                </c:pt>
+                <c:pt idx="1261">
+                  <c:v>485159500</c:v>
+                </c:pt>
+                <c:pt idx="1262">
+                  <c:v>486254300</c:v>
+                </c:pt>
+                <c:pt idx="1263">
+                  <c:v>487345200</c:v>
+                </c:pt>
+                <c:pt idx="1264">
+                  <c:v>488432400</c:v>
+                </c:pt>
+                <c:pt idx="1265">
+                  <c:v>489516400</c:v>
+                </c:pt>
+                <c:pt idx="1266">
+                  <c:v>490596200</c:v>
+                </c:pt>
+                <c:pt idx="1267">
+                  <c:v>491672700</c:v>
+                </c:pt>
+                <c:pt idx="1268">
+                  <c:v>492745800</c:v>
+                </c:pt>
+                <c:pt idx="1269">
+                  <c:v>493815200</c:v>
+                </c:pt>
+                <c:pt idx="1270">
+                  <c:v>494881100</c:v>
+                </c:pt>
+                <c:pt idx="1271">
+                  <c:v>495944000</c:v>
+                </c:pt>
+                <c:pt idx="1272">
+                  <c:v>497004100</c:v>
+                </c:pt>
+                <c:pt idx="1273">
+                  <c:v>498061100</c:v>
+                </c:pt>
+                <c:pt idx="1274">
+                  <c:v>499115300</c:v>
+                </c:pt>
+                <c:pt idx="1275">
+                  <c:v>500166400</c:v>
+                </c:pt>
+                <c:pt idx="1276">
+                  <c:v>501214800</c:v>
+                </c:pt>
+                <c:pt idx="1277">
+                  <c:v>502260300</c:v>
+                </c:pt>
+                <c:pt idx="1278">
+                  <c:v>503302800</c:v>
+                </c:pt>
+                <c:pt idx="1279">
+                  <c:v>504342700</c:v>
+                </c:pt>
+                <c:pt idx="1280">
+                  <c:v>505379700</c:v>
+                </c:pt>
+                <c:pt idx="1281">
+                  <c:v>506413800</c:v>
+                </c:pt>
+                <c:pt idx="1282">
+                  <c:v>507445500</c:v>
+                </c:pt>
+                <c:pt idx="1283">
+                  <c:v>508474100</c:v>
+                </c:pt>
+                <c:pt idx="1284">
+                  <c:v>509500300</c:v>
+                </c:pt>
+                <c:pt idx="1285">
+                  <c:v>510523600</c:v>
+                </c:pt>
+                <c:pt idx="1286">
+                  <c:v>511544200</c:v>
+                </c:pt>
+                <c:pt idx="1287">
+                  <c:v>512562200</c:v>
+                </c:pt>
+                <c:pt idx="1288">
+                  <c:v>513577400</c:v>
+                </c:pt>
+                <c:pt idx="1289">
+                  <c:v>514590200</c:v>
+                </c:pt>
+                <c:pt idx="1290">
+                  <c:v>515600300</c:v>
+                </c:pt>
+                <c:pt idx="1291">
+                  <c:v>516607900</c:v>
+                </c:pt>
+                <c:pt idx="1292">
+                  <c:v>517612900</c:v>
+                </c:pt>
+                <c:pt idx="1293">
+                  <c:v>518615200</c:v>
+                </c:pt>
+                <c:pt idx="1294">
+                  <c:v>519614900</c:v>
+                </c:pt>
+                <c:pt idx="1295">
+                  <c:v>520612400</c:v>
+                </c:pt>
+                <c:pt idx="1296">
+                  <c:v>521607100</c:v>
+                </c:pt>
+                <c:pt idx="1297">
+                  <c:v>522599400</c:v>
+                </c:pt>
+                <c:pt idx="1298">
+                  <c:v>523589200</c:v>
+                </c:pt>
+                <c:pt idx="1299">
+                  <c:v>524576400</c:v>
+                </c:pt>
+                <c:pt idx="1300">
+                  <c:v>525561500</c:v>
+                </c:pt>
+                <c:pt idx="1301">
+                  <c:v>526543700</c:v>
+                </c:pt>
+                <c:pt idx="1302">
+                  <c:v>527524100</c:v>
+                </c:pt>
+                <c:pt idx="1303">
+                  <c:v>528501800</c:v>
+                </c:pt>
+                <c:pt idx="1304">
+                  <c:v>529477000</c:v>
+                </c:pt>
+                <c:pt idx="1305">
+                  <c:v>530450200</c:v>
+                </c:pt>
+                <c:pt idx="1306">
+                  <c:v>531420700</c:v>
+                </c:pt>
+                <c:pt idx="1307">
+                  <c:v>532389100</c:v>
+                </c:pt>
+                <c:pt idx="1308">
+                  <c:v>533355200</c:v>
+                </c:pt>
+                <c:pt idx="1309">
+                  <c:v>534319000</c:v>
+                </c:pt>
+                <c:pt idx="1310">
+                  <c:v>535280400</c:v>
+                </c:pt>
+                <c:pt idx="1311">
+                  <c:v>536239600</c:v>
+                </c:pt>
+                <c:pt idx="1312">
+                  <c:v>537196600</c:v>
+                </c:pt>
+                <c:pt idx="1313">
+                  <c:v>538151200</c:v>
+                </c:pt>
+                <c:pt idx="1314">
+                  <c:v>539103700</c:v>
+                </c:pt>
+                <c:pt idx="1315">
+                  <c:v>540054000</c:v>
+                </c:pt>
+                <c:pt idx="1316">
+                  <c:v>541002200</c:v>
+                </c:pt>
+                <c:pt idx="1317">
+                  <c:v>541948300</c:v>
+                </c:pt>
+                <c:pt idx="1318">
+                  <c:v>542892200</c:v>
+                </c:pt>
+                <c:pt idx="1319">
+                  <c:v>543833700</c:v>
+                </c:pt>
+                <c:pt idx="1320">
+                  <c:v>544773300</c:v>
+                </c:pt>
+                <c:pt idx="1321">
+                  <c:v>545710700</c:v>
+                </c:pt>
+                <c:pt idx="1322">
+                  <c:v>546646100</c:v>
+                </c:pt>
+                <c:pt idx="1323">
+                  <c:v>547579300</c:v>
+                </c:pt>
+                <c:pt idx="1324">
+                  <c:v>548510500</c:v>
+                </c:pt>
+                <c:pt idx="1325">
+                  <c:v>549439500</c:v>
+                </c:pt>
+                <c:pt idx="1326">
+                  <c:v>550366600</c:v>
+                </c:pt>
+                <c:pt idx="1327">
+                  <c:v>551291800</c:v>
+                </c:pt>
+                <c:pt idx="1328">
+                  <c:v>552214700</c:v>
+                </c:pt>
+                <c:pt idx="1329">
+                  <c:v>553135800</c:v>
+                </c:pt>
+                <c:pt idx="1330">
+                  <c:v>554054900</c:v>
+                </c:pt>
+                <c:pt idx="1331">
+                  <c:v>554972100</c:v>
+                </c:pt>
+                <c:pt idx="1332">
+                  <c:v>555887400</c:v>
+                </c:pt>
+                <c:pt idx="1333">
+                  <c:v>556800700</c:v>
+                </c:pt>
+                <c:pt idx="1334">
+                  <c:v>557711900</c:v>
+                </c:pt>
+                <c:pt idx="1335">
+                  <c:v>558621300</c:v>
+                </c:pt>
+                <c:pt idx="1336">
+                  <c:v>559528500</c:v>
+                </c:pt>
+                <c:pt idx="1337">
+                  <c:v>560434000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ServerSubsampling_artefakte!$D$2:$D$1339</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="1338"/>
+                <c:pt idx="0">
+                  <c:v>-124471200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-122206700</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-118653400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-115813900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-111547400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-110476900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-109459100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-108492400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-107573600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-106700800</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-105873400</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-105092500</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-104355300</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-103644600</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-102954500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-102284000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-101632800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-101000200</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-100385500</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-99788030</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-99207380</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-98643180</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-98094590</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-97561780</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-97043460</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-96540020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-96050720</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-95574670</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-95106240</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-94645310</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-94191780</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-93745570</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-93306260</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-92874100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-92448720</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-92030020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-91618120</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-91212770</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-90814060</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-90421940</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-89649380</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-88901540</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-88177960</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-87478560</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-86802340</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-86141630</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-85494370</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-84860580</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-84240020</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-83632430</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-83037170</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-82454240</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-81883760</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-81324990</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-80778030</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-80242690</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-79718300</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-79205220</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-78702580</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-78210500</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-77725100</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-77246740</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-76774680</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-76309570</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-75850780</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-75398610</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-74952450</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-74512920</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-74079520</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-73652190</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-73231070</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-72815940</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-72406420</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-72002930</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-71605240</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-71213060</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-70826780</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-70445860</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-70070460</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-69700000</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-69333300</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-68970310</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-68611010</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-68255660</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-67903700</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-67555100</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-67210110</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-66868910</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-66193320</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-65531570</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-64883480</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-64248810</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-63627420</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-63019100</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-62423760</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-61840720</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-61269820</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-60707460</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-60153500</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-59607850</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-59070700</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-58541650</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-58020190</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-57506970</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-57001640</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-56503860</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-56013870</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-55531570</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-55056590</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-54588940</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-54128460</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-53675410</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-53229660</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-52788760</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-52353300</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-51922490</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-51496810</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-51075970</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-50659880</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-50248580</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-49841990</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-49440350</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-49043110</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-48650740</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-48262720</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-47879500</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-47500790</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-47126350</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-46756580</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-46391230</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-46030540</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-45673940</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-45321420</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-44972620</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-44626980</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-44284700</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-43945020</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-43608670</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-43275100</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-42944590</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-42617380</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-42292670</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-41971220</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-41652480</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-41336420</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-41023580</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>-40713700</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>-40406440</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>-40102090</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>-39800640</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-39501780</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-39205540</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>-38912110</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-38621520</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-38333470</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-37763280</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-37203700</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-36653660</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>-36111400</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-35576540</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-35049580</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-34530220</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-34018320</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-33513560</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-33016440</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-32526320</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-32043440</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-31567700</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-31099040</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-30636900</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-30182270</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-29734020</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-29292310</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-28856860</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-28426030</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-28000310</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>-27579140</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>-27162780</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>-26751460</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>-26344580</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>-25942640</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>-25545370</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>-25152670</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>-24764630</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>-24381080</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>-24002070</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-23627570</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-23257470</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-22891550</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>-22530300</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-22173100</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-21820270</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-21471450</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-21126630</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-20784580</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-20445490</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-20110180</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>-19777570</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>-19448200</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>-19121730</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>-18798150</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-18478000</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-18160690</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-17846290</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-17534960</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-17226170</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-16920700</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-16618020</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-16318390</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>-16021780</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>-15727620</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>-15436420</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>-15147900</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-14862090</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-14579220</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>-14299230</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-14021880</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-13747300</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-13474560</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-13203980</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-12935210</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-12668580</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-12403730</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-12141290</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>-11880620</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>-11622000</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>-11365460</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>-11110660</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>-10858200</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>-10607210</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>-10358470</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>-10111230</c:v>
+                </c:pt>
+                <c:pt idx="232" formatCode="General">
+                  <c:v>-9866280</c:v>
+                </c:pt>
+                <c:pt idx="233" formatCode="General">
+                  <c:v>-9623024</c:v>
+                </c:pt>
+                <c:pt idx="234" formatCode="General">
+                  <c:v>-9381768</c:v>
+                </c:pt>
+                <c:pt idx="235" formatCode="General">
+                  <c:v>-9142168</c:v>
+                </c:pt>
+                <c:pt idx="236" formatCode="General">
+                  <c:v>-8904848</c:v>
+                </c:pt>
+                <c:pt idx="237" formatCode="General">
+                  <c:v>-8668912</c:v>
+                </c:pt>
+                <c:pt idx="238" formatCode="General">
+                  <c:v>-8435200</c:v>
+                </c:pt>
+                <c:pt idx="239" formatCode="General">
+                  <c:v>-8203120</c:v>
+                </c:pt>
+                <c:pt idx="240" formatCode="General">
+                  <c:v>-7972992</c:v>
+                </c:pt>
+                <c:pt idx="241" formatCode="General">
+                  <c:v>-7744512</c:v>
+                </c:pt>
+                <c:pt idx="242" formatCode="General">
+                  <c:v>-7291400</c:v>
+                </c:pt>
+                <c:pt idx="243" formatCode="General">
+                  <c:v>-6845568</c:v>
+                </c:pt>
+                <c:pt idx="244" formatCode="General">
+                  <c:v>-6407008</c:v>
+                </c:pt>
+                <c:pt idx="245" formatCode="General">
+                  <c:v>-5974464</c:v>
+                </c:pt>
+                <c:pt idx="246" formatCode="General">
+                  <c:v>-5547232</c:v>
+                </c:pt>
+                <c:pt idx="247" formatCode="General">
+                  <c:v>-5125296</c:v>
+                </c:pt>
+                <c:pt idx="248" formatCode="General">
+                  <c:v>-4708896</c:v>
+                </c:pt>
+                <c:pt idx="249" formatCode="General">
+                  <c:v>-4297096</c:v>
+                </c:pt>
+                <c:pt idx="250" formatCode="General">
+                  <c:v>-3890752</c:v>
+                </c:pt>
+                <c:pt idx="251" formatCode="General">
+                  <c:v>-3489808</c:v>
+                </c:pt>
+                <c:pt idx="252" formatCode="General">
+                  <c:v>-3093640</c:v>
+                </c:pt>
+                <c:pt idx="253" formatCode="General">
+                  <c:v>-2702808</c:v>
+                </c:pt>
+                <c:pt idx="254" formatCode="General">
+                  <c:v>-2316672</c:v>
+                </c:pt>
+                <c:pt idx="255" formatCode="General">
+                  <c:v>-1935464</c:v>
+                </c:pt>
+                <c:pt idx="256" formatCode="General">
+                  <c:v>-1559168</c:v>
+                </c:pt>
+                <c:pt idx="257" formatCode="General">
+                  <c:v>-1188032</c:v>
+                </c:pt>
+                <c:pt idx="258" formatCode="General">
+                  <c:v>-821128</c:v>
+                </c:pt>
+                <c:pt idx="259" formatCode="General">
+                  <c:v>-459264</c:v>
+                </c:pt>
+                <c:pt idx="260" formatCode="General">
+                  <c:v>-102184</c:v>
+                </c:pt>
+                <c:pt idx="261" formatCode="General">
+                  <c:v>250456</c:v>
+                </c:pt>
+                <c:pt idx="262" formatCode="General">
+                  <c:v>598120</c:v>
+                </c:pt>
+                <c:pt idx="263" formatCode="General">
+                  <c:v>941408</c:v>
+                </c:pt>
+                <c:pt idx="264" formatCode="General">
+                  <c:v>1280776</c:v>
+                </c:pt>
+                <c:pt idx="265" formatCode="General">
+                  <c:v>1616624</c:v>
+                </c:pt>
+                <c:pt idx="266" formatCode="General">
+                  <c:v>1949056</c:v>
+                </c:pt>
+                <c:pt idx="267" formatCode="General">
+                  <c:v>2278336</c:v>
+                </c:pt>
+                <c:pt idx="268" formatCode="General">
+                  <c:v>2603640</c:v>
+                </c:pt>
+                <c:pt idx="269" formatCode="General">
+                  <c:v>2925552</c:v>
+                </c:pt>
+                <c:pt idx="270" formatCode="General">
+                  <c:v>3244136</c:v>
+                </c:pt>
+                <c:pt idx="271" formatCode="General">
+                  <c:v>3559416</c:v>
+                </c:pt>
+                <c:pt idx="272" formatCode="General">
+                  <c:v>3871352</c:v>
+                </c:pt>
+                <c:pt idx="273" formatCode="General">
+                  <c:v>4180016</c:v>
+                </c:pt>
+                <c:pt idx="274" formatCode="General">
+                  <c:v>4485392</c:v>
+                </c:pt>
+                <c:pt idx="275" formatCode="General">
+                  <c:v>4787568</c:v>
+                </c:pt>
+                <c:pt idx="276" formatCode="General">
+                  <c:v>5086232</c:v>
+                </c:pt>
+                <c:pt idx="277" formatCode="General">
+                  <c:v>5381744</c:v>
+                </c:pt>
+                <c:pt idx="278" formatCode="General">
+                  <c:v>5673784</c:v>
+                </c:pt>
+                <c:pt idx="279" formatCode="General">
+                  <c:v>5962984</c:v>
+                </c:pt>
+                <c:pt idx="280" formatCode="General">
+                  <c:v>6249112</c:v>
+                </c:pt>
+                <c:pt idx="281" formatCode="General">
+                  <c:v>6532112</c:v>
+                </c:pt>
+                <c:pt idx="282" formatCode="General">
+                  <c:v>6811784</c:v>
+                </c:pt>
+                <c:pt idx="283" formatCode="General">
+                  <c:v>7088696</c:v>
+                </c:pt>
+                <c:pt idx="284" formatCode="General">
+                  <c:v>7362584</c:v>
+                </c:pt>
+                <c:pt idx="285" formatCode="General">
+                  <c:v>7633472</c:v>
+                </c:pt>
+                <c:pt idx="286" formatCode="General">
+                  <c:v>7901064</c:v>
+                </c:pt>
+                <c:pt idx="287" formatCode="General">
+                  <c:v>8166480</c:v>
+                </c:pt>
+                <c:pt idx="288" formatCode="General">
+                  <c:v>8429456</c:v>
+                </c:pt>
+                <c:pt idx="289" formatCode="General">
+                  <c:v>8690032</c:v>
+                </c:pt>
+                <c:pt idx="290" formatCode="General">
+                  <c:v>8948584</c:v>
+                </c:pt>
+                <c:pt idx="291" formatCode="General">
+                  <c:v>9204752</c:v>
+                </c:pt>
+                <c:pt idx="292" formatCode="General">
+                  <c:v>9458616</c:v>
+                </c:pt>
+                <c:pt idx="293" formatCode="General">
+                  <c:v>9710168</c:v>
+                </c:pt>
+                <c:pt idx="294" formatCode="General">
+                  <c:v>9959424</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>10206660</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>10451960</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>10694680</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>10935130</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>11173650</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>11409990</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>11644400</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>11876330</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>12106360</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>12334510</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>12560530</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>12784140</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>13005880</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>13225840</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>13443980</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>13659750</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>13873440</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>14085340</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>14295520</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>14503360</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>14709260</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>14914100</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>15117280</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>15318860</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>15518820</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>15717470</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>15914500</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>16110560</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>16304700</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>16497260</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>16688860</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>16878620</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>17067110</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>17254050</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>17439740</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>17623900</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>17806860</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>17988290</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>18168190</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>18346910</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>18524440</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>18700190</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>18875050</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>19048140</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>19220060</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>19390800</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>19559810</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>19727680</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>19894440</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>20060040</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>20223940</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>20386700</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>20548430</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>20868860</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>21184340</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>21495890</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>21803220</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>22107060</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>22406750</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>22703000</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>22995230</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>23283450</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>23568010</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>23848940</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>24126620</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>24400110</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>24670140</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>24936960</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>25200020</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>25459730</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>25716040</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>25969010</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>26218710</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>26465100</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>26707940</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>26947810</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>27184300</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>27418230</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>27649670</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>27878620</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>28104480</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>28328240</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>28549240</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>28767900</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>28984200</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>29197820</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>29409140</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>29618160</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>29824900</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>30029030</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>30230990</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>30430360</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>30627570</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>30822890</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>31015450</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>31205850</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>31394510</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>31580740</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>31764590</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>31946410</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>32126170</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>32303600</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>32479360</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>32652900</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>32824620</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>32994800</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>33162810</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>33330060</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>33495130</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>33658800</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>33820700</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>33981180</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>34139560</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>34296540</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>34451840</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>34605790</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>34758350</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>34909230</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>35058820</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>35206720</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>35352990</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>35497630</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>35640960</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>35782750</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>35923570</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>36062500</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>36200220</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>36336690</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>36471270</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>36604650</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>36736480</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>36867520</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>36997030</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>37125060</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>37251930</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>37377370</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>37501320</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>37624000</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>37745570</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>37866320</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>37986300</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>38104770</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>38222460</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>38339060</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>38454540</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>38568920</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>38682220</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>38794420</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>38905540</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>39015640</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>39124980</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>39233260</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>39340460</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>39446640</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>39552060</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>39656470</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>39759880</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>39862580</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>39963910</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>40064240</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>40163540</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>40262200</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>40359540</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>40456220</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>40551900</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>40646990</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>40740760</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>40833900</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>40926460</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>41017690</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>41108380</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>41198080</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>41286910</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>41375160</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>41462140</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>41548270</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>41633440</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>41717780</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>41801520</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>41967400</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>42130560</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>42290700</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>42448540</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>42603390</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>42755690</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>42905450</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>43051960</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>43196400</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>43338010</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>43477240</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>43613740</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>43748220</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>43880110</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>44009660</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>44137040</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>44262160</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>44385160</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>44505690</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>44624400</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>44740020</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>44853940</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>44965860</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>45075440</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>45183070</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>45288760</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>45392750</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>45494640</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>45594820</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>45692950</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>45789780</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>45884920</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>45978080</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>46070350</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>46160240</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>46248560</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>46335260</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>46420780</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>46504400</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>46586440</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>46667050</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>46746130</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>46823760</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>46899930</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>46974720</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>47047720</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>47119740</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>47189990</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>47259260</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>47326840</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>47393100</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>47458450</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>47522220</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>47584270</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>47645570</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>47705590</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>47764060</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>47821320</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>47877790</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>47932650</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>47986310</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>48039500</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>48091190</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>48141700</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>48191130</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>48239780</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>48287640</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>48334070</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>48379400</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>48424000</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>48467540</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>48510040</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>48551480</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>48592290</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>48631720</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>48670460</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>48708260</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>48745410</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>48781220</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>48816050</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>48850320</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>48883690</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>48915670</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>48947580</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>48978520</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>49008190</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>49037350</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>49065610</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>49093020</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>49119620</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>49145660</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>49170870</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>49195290</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>49218820</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>49241560</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>49263460</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>49284940</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>49305640</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>49325540</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>49344680</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>49363230</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>49381200</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>49398230</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>49414710</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>49430700</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>49445730</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>49460640</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>49474670</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>49487840</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>49500470</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>49512630</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>49523940</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>49535070</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>49545410</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>49554960</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>49563980</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>49572560</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>49580340</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>49587620</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>49594540</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>49601050</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>49606330</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>49612000</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>49616470</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>49620580</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>49623880</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>49627200</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>49629770</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>49631550</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>49633440</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>49634510</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>49634890</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>49634900</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>49634610</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>49633550</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>49632190</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>49630100</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>49627740</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>49625050</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>49621660</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>49618430</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>49614120</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>49609880</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>49604600</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>49599440</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>49593630</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>49587550</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>49573880</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>49558840</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>49542480</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>49524560</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>49504340</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>49482980</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>49459740</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>49435410</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>49409640</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>49382460</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>49353830</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>49323900</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>49292690</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>49260150</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>49226760</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>49191330</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>49154690</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>49116920</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>49078420</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>49038400</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>48997700</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>48955190</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>48912010</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>48867920</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>48822410</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>48776370</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>48729060</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>48680860</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>48631790</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>48581550</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>48530440</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>48478620</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>48426020</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>48372330</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>48317920</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>48262110</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>48205980</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>48148720</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>48090760</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>48032100</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>47972780</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>47912010</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>47850560</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>47788520</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>47725900</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>47662670</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>47598490</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>47533300</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>47467570</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>47401340</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>47334150</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>47266510</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>47198390</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>47129340</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>47059450</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>46989610</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>46918860</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>46847730</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>46775430</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>46702740</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>46629680</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>46556320</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>46482270</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>46407450</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>46332370</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>46257040</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>46180610</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>46104360</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>46027500</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>45950420</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>45872320</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>45794030</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>45715570</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>45636600</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>45557480</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>45477820</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>45397640</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>45317050</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>45236150</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>45154970</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>45073510</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>44990880</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>44908440</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>44825300</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>44741470</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>44657460</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>44573180</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>44488250</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>44402760</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>44317460</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>44231100</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>44144970</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>44058280</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>43971000</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>43883600</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>43795560</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>43707460</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>43619180</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>43530750</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>43442230</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>43353620</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>43264460</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>43174800</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>43085500</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>42995260</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>42904990</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>42814670</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>42723880</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>42633080</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>42542240</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>42450940</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>42359220</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>42267490</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>42175780</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>42083290</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>41990320</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>41897430</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>41804590</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>41711340</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>41617750</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>41524240</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>41430840</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>41337030</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>41243350</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>41149360</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>41055460</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>40961700</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>40867620</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>40772840</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>40678150</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>40583280</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>40488610</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>40393380</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>40298420</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>40202900</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>40107220</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>40011380</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>39915470</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>39819410</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>39722810</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>39626090</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>39529200</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>39432240</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>39335260</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>39238160</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>39140500</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>39043220</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>38945380</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>38847990</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>38750050</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>38651640</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>38553620</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>38455070</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>38356930</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>38258290</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>38159650</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>38060940</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>37962220</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>37863440</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>37764680</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>37665420</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>37566190</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>37466940</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>37367250</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>37268010</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>37168790</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>37069150</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>36969960</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>36869880</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>36670440</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>36470290</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>36270340</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>36070140</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>35869770</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>35669270</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>35468670</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>35268470</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>35067770</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>34867080</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>34666420</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>34465860</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>34265410</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>34065080</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>33864450</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>33664620</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>33463840</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>33262710</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>33061700</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>32859880</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>32658660</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>32457150</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>32255800</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>32053810</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>31851570</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>31649580</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>31447410</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>31245520</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>31043480</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>30841330</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>30639520</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>30437220</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>30234820</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>30032870</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>29830450</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>29628940</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>29427480</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>29226130</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>29024780</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>28824010</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>28622450</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>28421040</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>28219800</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>28018720</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>27818310</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>27618080</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>27417680</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>27217970</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>27018520</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>26818460</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>26619180</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>26420270</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>26221680</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>26023470</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>25825200</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>25627340</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>25429880</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>25232870</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>25035840</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>24839300</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>24642920</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>24446190</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>24250180</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>24053910</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>23857840</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>23661980</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>23466430</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>23271100</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>23075560</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>22880280</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>22685780</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>22490640</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>22296290</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>22101340</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>21906710</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>21712440</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>21518530</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>21324990</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>21131380</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>20938170</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>20745380</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>20552540</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>20359670</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>20167230</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>19975300</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>19783800</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>19591860</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>19400380</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>19209400</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>19018990</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>18828630</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>18638300</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>18448520</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>18259300</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>18069680</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>17880710</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>17692280</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>17503990</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>17315840</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>17128270</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>16941380</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>16754660</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>16568110</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>16381770</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>16196050</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>16010570</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>15825300</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>15640740</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>15456900</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>15272810</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>15089950</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>14906360</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>14724020</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>14541930</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>14360120</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>14179080</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>13997840</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>13817390</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>13636880</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>13457260</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>13277080</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>13097280</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>12917890</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>12738460</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>12559470</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>12380910</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>12202840</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>12025220</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>11847560</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>11670320</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>11493140</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>11316400</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>11140160</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>10963920</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>10787700</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>10612520</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>10436820</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>10262150</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>10087070</c:v>
+                </c:pt>
+                <c:pt idx="929" formatCode="General">
+                  <c:v>9913032</c:v>
+                </c:pt>
+                <c:pt idx="930" formatCode="General">
+                  <c:v>9738484</c:v>
+                </c:pt>
+                <c:pt idx="931" formatCode="General">
+                  <c:v>9565000</c:v>
+                </c:pt>
+                <c:pt idx="932" formatCode="General">
+                  <c:v>9391100</c:v>
+                </c:pt>
+                <c:pt idx="933" formatCode="General">
+                  <c:v>9217256</c:v>
+                </c:pt>
+                <c:pt idx="934" formatCode="General">
+                  <c:v>9044004</c:v>
+                </c:pt>
+                <c:pt idx="935" formatCode="General">
+                  <c:v>8870812</c:v>
+                </c:pt>
+                <c:pt idx="936" formatCode="General">
+                  <c:v>8698192</c:v>
+                </c:pt>
+                <c:pt idx="937" formatCode="General">
+                  <c:v>8525676</c:v>
+                </c:pt>
+                <c:pt idx="938" formatCode="General">
+                  <c:v>8353788</c:v>
+                </c:pt>
+                <c:pt idx="939" formatCode="General">
+                  <c:v>8182456</c:v>
+                </c:pt>
+                <c:pt idx="940" formatCode="General">
+                  <c:v>8011208</c:v>
+                </c:pt>
+                <c:pt idx="941" formatCode="General">
+                  <c:v>7840120</c:v>
+                </c:pt>
+                <c:pt idx="942" formatCode="General">
+                  <c:v>7670116</c:v>
+                </c:pt>
+                <c:pt idx="943" formatCode="General">
+                  <c:v>7499768</c:v>
+                </c:pt>
+                <c:pt idx="944" formatCode="General">
+                  <c:v>7330536</c:v>
+                </c:pt>
+                <c:pt idx="945" formatCode="General">
+                  <c:v>7160436</c:v>
+                </c:pt>
+                <c:pt idx="946" formatCode="General">
+                  <c:v>6990988</c:v>
+                </c:pt>
+                <c:pt idx="947" formatCode="General">
+                  <c:v>6822172</c:v>
+                </c:pt>
+                <c:pt idx="948" formatCode="General">
+                  <c:v>6653496</c:v>
+                </c:pt>
+                <c:pt idx="949" formatCode="General">
+                  <c:v>6485476</c:v>
+                </c:pt>
+                <c:pt idx="950" formatCode="General">
+                  <c:v>6317664</c:v>
+                </c:pt>
+                <c:pt idx="951" formatCode="General">
+                  <c:v>6150464</c:v>
+                </c:pt>
+                <c:pt idx="952" formatCode="General">
+                  <c:v>5983468</c:v>
+                </c:pt>
+                <c:pt idx="953" formatCode="General">
+                  <c:v>5816700</c:v>
+                </c:pt>
+                <c:pt idx="954" formatCode="General">
+                  <c:v>5650084</c:v>
+                </c:pt>
+                <c:pt idx="955" formatCode="General">
+                  <c:v>5484172</c:v>
+                </c:pt>
+                <c:pt idx="956" formatCode="General">
+                  <c:v>5318424</c:v>
+                </c:pt>
+                <c:pt idx="957" formatCode="General">
+                  <c:v>5153420</c:v>
+                </c:pt>
+                <c:pt idx="958" formatCode="General">
+                  <c:v>4988544</c:v>
+                </c:pt>
+                <c:pt idx="959" formatCode="General">
+                  <c:v>4823952</c:v>
+                </c:pt>
+                <c:pt idx="960" formatCode="General">
+                  <c:v>4659492</c:v>
+                </c:pt>
+                <c:pt idx="961" formatCode="General">
+                  <c:v>4495788</c:v>
+                </c:pt>
+                <c:pt idx="962" formatCode="General">
+                  <c:v>4332340</c:v>
+                </c:pt>
+                <c:pt idx="963" formatCode="General">
+                  <c:v>4169576</c:v>
+                </c:pt>
+                <c:pt idx="964" formatCode="General">
+                  <c:v>4007036</c:v>
+                </c:pt>
+                <c:pt idx="965" formatCode="General">
+                  <c:v>3844764</c:v>
+                </c:pt>
+                <c:pt idx="966" formatCode="General">
+                  <c:v>3682712</c:v>
+                </c:pt>
+                <c:pt idx="967" formatCode="General">
+                  <c:v>3521444</c:v>
+                </c:pt>
+                <c:pt idx="968" formatCode="General">
+                  <c:v>3360444</c:v>
+                </c:pt>
+                <c:pt idx="969" formatCode="General">
+                  <c:v>3200136</c:v>
+                </c:pt>
+                <c:pt idx="970" formatCode="General">
+                  <c:v>3039640</c:v>
+                </c:pt>
+                <c:pt idx="971" formatCode="General">
+                  <c:v>2879368</c:v>
+                </c:pt>
+                <c:pt idx="972" formatCode="General">
+                  <c:v>2720416</c:v>
+                </c:pt>
+                <c:pt idx="973" formatCode="General">
+                  <c:v>2561188</c:v>
+                </c:pt>
+                <c:pt idx="974" formatCode="General">
+                  <c:v>2403228</c:v>
+                </c:pt>
+                <c:pt idx="975" formatCode="General">
+                  <c:v>2244576</c:v>
+                </c:pt>
+                <c:pt idx="976" formatCode="General">
+                  <c:v>2086708</c:v>
+                </c:pt>
+                <c:pt idx="977" formatCode="General">
+                  <c:v>1929664</c:v>
+                </c:pt>
+                <c:pt idx="978" formatCode="General">
+                  <c:v>1772904</c:v>
+                </c:pt>
+                <c:pt idx="979" formatCode="General">
+                  <c:v>1616440</c:v>
+                </c:pt>
+                <c:pt idx="980" formatCode="General">
+                  <c:v>1460280</c:v>
+                </c:pt>
+                <c:pt idx="981" formatCode="General">
+                  <c:v>1304440</c:v>
+                </c:pt>
+                <c:pt idx="982" formatCode="General">
+                  <c:v>1149432</c:v>
+                </c:pt>
+                <c:pt idx="983" formatCode="General">
+                  <c:v>994728</c:v>
+                </c:pt>
+                <c:pt idx="984" formatCode="General">
+                  <c:v>685792</c:v>
+                </c:pt>
+                <c:pt idx="985" formatCode="General">
+                  <c:v>377360</c:v>
+                </c:pt>
+                <c:pt idx="986" formatCode="General">
+                  <c:v>70440</c:v>
+                </c:pt>
+                <c:pt idx="987" formatCode="General">
+                  <c:v>-235960</c:v>
+                </c:pt>
+                <c:pt idx="988" formatCode="General">
+                  <c:v>-540784</c:v>
+                </c:pt>
+                <c:pt idx="989" formatCode="General">
+                  <c:v>-844528</c:v>
+                </c:pt>
+                <c:pt idx="990" formatCode="General">
+                  <c:v>-1147104</c:v>
+                </c:pt>
+                <c:pt idx="991" formatCode="General">
+                  <c:v>-1448032</c:v>
+                </c:pt>
+                <c:pt idx="992" formatCode="General">
+                  <c:v>-1748832</c:v>
+                </c:pt>
+                <c:pt idx="993" formatCode="General">
+                  <c:v>-2047392</c:v>
+                </c:pt>
+                <c:pt idx="994" formatCode="General">
+                  <c:v>-2345224</c:v>
+                </c:pt>
+                <c:pt idx="995" formatCode="General">
+                  <c:v>-2641784</c:v>
+                </c:pt>
+                <c:pt idx="996" formatCode="General">
+                  <c:v>-2937080</c:v>
+                </c:pt>
+                <c:pt idx="997" formatCode="General">
+                  <c:v>-3231576</c:v>
+                </c:pt>
+                <c:pt idx="998" formatCode="General">
+                  <c:v>-3524200</c:v>
+                </c:pt>
+                <c:pt idx="999" formatCode="General">
+                  <c:v>-3815480</c:v>
+                </c:pt>
+                <c:pt idx="1000" formatCode="General">
+                  <c:v>-4106432</c:v>
+                </c:pt>
+                <c:pt idx="1001" formatCode="General">
+                  <c:v>-4394928</c:v>
+                </c:pt>
+                <c:pt idx="1002" formatCode="General">
+                  <c:v>-4683024</c:v>
+                </c:pt>
+                <c:pt idx="1003" formatCode="General">
+                  <c:v>-4969704</c:v>
+                </c:pt>
+                <c:pt idx="1004" formatCode="General">
+                  <c:v>-5254832</c:v>
+                </c:pt>
+                <c:pt idx="1005" formatCode="General">
+                  <c:v>-5538504</c:v>
+                </c:pt>
+                <c:pt idx="1006" formatCode="General">
+                  <c:v>-5821176</c:v>
+                </c:pt>
+                <c:pt idx="1007" formatCode="General">
+                  <c:v>-6102312</c:v>
+                </c:pt>
+                <c:pt idx="1008" formatCode="General">
+                  <c:v>-6382400</c:v>
+                </c:pt>
+                <c:pt idx="1009" formatCode="General">
+                  <c:v>-6661408</c:v>
+                </c:pt>
+                <c:pt idx="1010" formatCode="General">
+                  <c:v>-6938864</c:v>
+                </c:pt>
+                <c:pt idx="1011" formatCode="General">
+                  <c:v>-7214112</c:v>
+                </c:pt>
+                <c:pt idx="1012" formatCode="General">
+                  <c:v>-7488744</c:v>
+                </c:pt>
+                <c:pt idx="1013" formatCode="General">
+                  <c:v>-7761208</c:v>
+                </c:pt>
+                <c:pt idx="1014" formatCode="General">
+                  <c:v>-8033008</c:v>
+                </c:pt>
+                <c:pt idx="1015" formatCode="General">
+                  <c:v>-8303112</c:v>
+                </c:pt>
+                <c:pt idx="1016" formatCode="General">
+                  <c:v>-8571976</c:v>
+                </c:pt>
+                <c:pt idx="1017" formatCode="General">
+                  <c:v>-8839088</c:v>
+                </c:pt>
+                <c:pt idx="1018" formatCode="General">
+                  <c:v>-9104960</c:v>
+                </c:pt>
+                <c:pt idx="1019" formatCode="General">
+                  <c:v>-9369520</c:v>
+                </c:pt>
+                <c:pt idx="1020" formatCode="General">
+                  <c:v>-9632256</c:v>
+                </c:pt>
+                <c:pt idx="1021" formatCode="General">
+                  <c:v>-9893712</c:v>
+                </c:pt>
+                <c:pt idx="1022">
+                  <c:v>-10153350</c:v>
+                </c:pt>
+                <c:pt idx="1023">
+                  <c:v>-10412630</c:v>
+                </c:pt>
+                <c:pt idx="1024">
+                  <c:v>-10670050</c:v>
+                </c:pt>
+                <c:pt idx="1025">
+                  <c:v>-10925480</c:v>
+                </c:pt>
+                <c:pt idx="1026">
+                  <c:v>-11180090</c:v>
+                </c:pt>
+                <c:pt idx="1027">
+                  <c:v>-11432220</c:v>
+                </c:pt>
+                <c:pt idx="1028">
+                  <c:v>-11683910</c:v>
+                </c:pt>
+                <c:pt idx="1029">
+                  <c:v>-11934180</c:v>
+                </c:pt>
+                <c:pt idx="1030">
+                  <c:v>-12182430</c:v>
+                </c:pt>
+                <c:pt idx="1031">
+                  <c:v>-12429150</c:v>
+                </c:pt>
+                <c:pt idx="1032">
+                  <c:v>-12674370</c:v>
+                </c:pt>
+                <c:pt idx="1033">
+                  <c:v>-12918580</c:v>
+                </c:pt>
+                <c:pt idx="1034">
+                  <c:v>-13161120</c:v>
+                </c:pt>
+                <c:pt idx="1035">
+                  <c:v>-13402510</c:v>
+                </c:pt>
+                <c:pt idx="1036">
+                  <c:v>-13642810</c:v>
+                </c:pt>
+                <c:pt idx="1037">
+                  <c:v>-13882480</c:v>
+                </c:pt>
+                <c:pt idx="1038">
+                  <c:v>-14120910</c:v>
+                </c:pt>
+                <c:pt idx="1039">
+                  <c:v>-14358180</c:v>
+                </c:pt>
+                <c:pt idx="1040">
+                  <c:v>-14594250</c:v>
+                </c:pt>
+                <c:pt idx="1041">
+                  <c:v>-14829070</c:v>
+                </c:pt>
+                <c:pt idx="1042">
+                  <c:v>-15063210</c:v>
+                </c:pt>
+                <c:pt idx="1043">
+                  <c:v>-15296060</c:v>
+                </c:pt>
+                <c:pt idx="1044">
+                  <c:v>-15527670</c:v>
+                </c:pt>
+                <c:pt idx="1045">
+                  <c:v>-15758580</c:v>
+                </c:pt>
+                <c:pt idx="1046">
+                  <c:v>-15988180</c:v>
+                </c:pt>
+                <c:pt idx="1047">
+                  <c:v>-16215930</c:v>
+                </c:pt>
+                <c:pt idx="1048">
+                  <c:v>-16443460</c:v>
+                </c:pt>
+                <c:pt idx="1049">
+                  <c:v>-16669630</c:v>
+                </c:pt>
+                <c:pt idx="1050">
+                  <c:v>-16894540</c:v>
+                </c:pt>
+                <c:pt idx="1051">
+                  <c:v>-17118560</c:v>
+                </c:pt>
+                <c:pt idx="1052">
+                  <c:v>-17341290</c:v>
+                </c:pt>
+                <c:pt idx="1053">
+                  <c:v>-17562590</c:v>
+                </c:pt>
+                <c:pt idx="1054">
+                  <c:v>-17783060</c:v>
+                </c:pt>
+                <c:pt idx="1055">
+                  <c:v>-18002140</c:v>
+                </c:pt>
+                <c:pt idx="1056">
+                  <c:v>-18220340</c:v>
+                </c:pt>
+                <c:pt idx="1057">
+                  <c:v>-18437100</c:v>
+                </c:pt>
+                <c:pt idx="1058">
+                  <c:v>-18652470</c:v>
+                </c:pt>
+                <c:pt idx="1059">
+                  <c:v>-18866930</c:v>
+                </c:pt>
+                <c:pt idx="1060">
+                  <c:v>-19079940</c:v>
+                </c:pt>
+                <c:pt idx="1061">
+                  <c:v>-19292020</c:v>
+                </c:pt>
+                <c:pt idx="1062">
+                  <c:v>-19502620</c:v>
+                </c:pt>
+                <c:pt idx="1063">
+                  <c:v>-19712290</c:v>
+                </c:pt>
+                <c:pt idx="1064">
+                  <c:v>-19920420</c:v>
+                </c:pt>
+                <c:pt idx="1065">
+                  <c:v>-20127660</c:v>
+                </c:pt>
+                <c:pt idx="1066">
+                  <c:v>-20333840</c:v>
+                </c:pt>
+                <c:pt idx="1067">
+                  <c:v>-20538520</c:v>
+                </c:pt>
+                <c:pt idx="1068">
+                  <c:v>-20741700</c:v>
+                </c:pt>
+                <c:pt idx="1069">
+                  <c:v>-20944340</c:v>
+                </c:pt>
+                <c:pt idx="1070">
+                  <c:v>-21145980</c:v>
+                </c:pt>
+                <c:pt idx="1071">
+                  <c:v>-21345530</c:v>
+                </c:pt>
+                <c:pt idx="1072">
+                  <c:v>-21544500</c:v>
+                </c:pt>
+                <c:pt idx="1073">
+                  <c:v>-21741950</c:v>
+                </c:pt>
+                <c:pt idx="1074">
+                  <c:v>-21937780</c:v>
+                </c:pt>
+                <c:pt idx="1075">
+                  <c:v>-22133020</c:v>
+                </c:pt>
+                <c:pt idx="1076">
+                  <c:v>-22326710</c:v>
+                </c:pt>
+                <c:pt idx="1077">
+                  <c:v>-22519860</c:v>
+                </c:pt>
+                <c:pt idx="1078">
+                  <c:v>-22711320</c:v>
+                </c:pt>
+                <c:pt idx="1079">
+                  <c:v>-22901130</c:v>
+                </c:pt>
+                <c:pt idx="1080">
+                  <c:v>-23089800</c:v>
+                </c:pt>
+                <c:pt idx="1081">
+                  <c:v>-23277880</c:v>
+                </c:pt>
+                <c:pt idx="1082">
+                  <c:v>-23463740</c:v>
+                </c:pt>
+                <c:pt idx="1083">
+                  <c:v>-23648980</c:v>
+                </c:pt>
+                <c:pt idx="1084">
+                  <c:v>-23833100</c:v>
+                </c:pt>
+                <c:pt idx="1085">
+                  <c:v>-24015980</c:v>
+                </c:pt>
+                <c:pt idx="1086">
+                  <c:v>-24197210</c:v>
+                </c:pt>
+                <c:pt idx="1087">
+                  <c:v>-24377220</c:v>
+                </c:pt>
+                <c:pt idx="1088">
+                  <c:v>-24556020</c:v>
+                </c:pt>
+                <c:pt idx="1089">
+                  <c:v>-24734170</c:v>
+                </c:pt>
+                <c:pt idx="1090">
+                  <c:v>-24910540</c:v>
+                </c:pt>
+                <c:pt idx="1091">
+                  <c:v>-25085680</c:v>
+                </c:pt>
+                <c:pt idx="1092">
+                  <c:v>-25259620</c:v>
+                </c:pt>
+                <c:pt idx="1093">
+                  <c:v>-25432370</c:v>
+                </c:pt>
+                <c:pt idx="1094">
+                  <c:v>-25603730</c:v>
+                </c:pt>
+                <c:pt idx="1095">
+                  <c:v>-25773930</c:v>
+                </c:pt>
+                <c:pt idx="1096">
+                  <c:v>-25942830</c:v>
+                </c:pt>
+                <c:pt idx="1097">
+                  <c:v>-26110430</c:v>
+                </c:pt>
+                <c:pt idx="1098">
+                  <c:v>-26276220</c:v>
+                </c:pt>
+                <c:pt idx="1099">
+                  <c:v>-26441820</c:v>
+                </c:pt>
+                <c:pt idx="1100">
+                  <c:v>-26606010</c:v>
+                </c:pt>
+                <c:pt idx="1101">
+                  <c:v>-26769420</c:v>
+                </c:pt>
+                <c:pt idx="1102">
+                  <c:v>-26932020</c:v>
+                </c:pt>
+                <c:pt idx="1103">
+                  <c:v>-27093260</c:v>
+                </c:pt>
+                <c:pt idx="1104">
+                  <c:v>-27253630</c:v>
+                </c:pt>
+                <c:pt idx="1105">
+                  <c:v>-27413200</c:v>
+                </c:pt>
+                <c:pt idx="1106">
+                  <c:v>-27571900</c:v>
+                </c:pt>
+                <c:pt idx="1107">
+                  <c:v>-27729210</c:v>
+                </c:pt>
+                <c:pt idx="1108">
+                  <c:v>-27886180</c:v>
+                </c:pt>
+                <c:pt idx="1109">
+                  <c:v>-28041790</c:v>
+                </c:pt>
+                <c:pt idx="1110">
+                  <c:v>-28196530</c:v>
+                </c:pt>
+                <c:pt idx="1111">
+                  <c:v>-28349780</c:v>
+                </c:pt>
+                <c:pt idx="1112">
+                  <c:v>-28502220</c:v>
+                </c:pt>
+                <c:pt idx="1113">
+                  <c:v>-28653710</c:v>
+                </c:pt>
+                <c:pt idx="1114">
+                  <c:v>-28804330</c:v>
+                </c:pt>
+                <c:pt idx="1115">
+                  <c:v>-28953490</c:v>
+                </c:pt>
+                <c:pt idx="1116">
+                  <c:v>-29101790</c:v>
+                </c:pt>
+                <c:pt idx="1117">
+                  <c:v>-29249760</c:v>
+                </c:pt>
+                <c:pt idx="1118">
+                  <c:v>-29396770</c:v>
+                </c:pt>
+                <c:pt idx="1119">
+                  <c:v>-29542340</c:v>
+                </c:pt>
+                <c:pt idx="1120">
+                  <c:v>-29686920</c:v>
+                </c:pt>
+                <c:pt idx="1121">
+                  <c:v>-29830580</c:v>
+                </c:pt>
+                <c:pt idx="1122">
+                  <c:v>-29973300</c:v>
+                </c:pt>
+                <c:pt idx="1123">
+                  <c:v>-30114570</c:v>
+                </c:pt>
+                <c:pt idx="1124">
+                  <c:v>-30255400</c:v>
+                </c:pt>
+                <c:pt idx="1125">
+                  <c:v>-30394710</c:v>
+                </c:pt>
+                <c:pt idx="1126">
+                  <c:v>-30533640</c:v>
+                </c:pt>
+                <c:pt idx="1127">
+                  <c:v>-30671050</c:v>
+                </c:pt>
+                <c:pt idx="1128">
+                  <c:v>-30807460</c:v>
+                </c:pt>
+                <c:pt idx="1129">
+                  <c:v>-30943450</c:v>
+                </c:pt>
+                <c:pt idx="1130">
+                  <c:v>-31077910</c:v>
+                </c:pt>
+                <c:pt idx="1131">
+                  <c:v>-31211360</c:v>
+                </c:pt>
+                <c:pt idx="1132">
+                  <c:v>-31343820</c:v>
+                </c:pt>
+                <c:pt idx="1133">
+                  <c:v>-31475260</c:v>
+                </c:pt>
+                <c:pt idx="1134">
+                  <c:v>-31605740</c:v>
+                </c:pt>
+                <c:pt idx="1135">
+                  <c:v>-31735760</c:v>
+                </c:pt>
+                <c:pt idx="1136">
+                  <c:v>-31864180</c:v>
+                </c:pt>
+                <c:pt idx="1137">
+                  <c:v>-31991610</c:v>
+                </c:pt>
+                <c:pt idx="1138">
+                  <c:v>-32117980</c:v>
+                </c:pt>
+                <c:pt idx="1139">
+                  <c:v>-32243340</c:v>
+                </c:pt>
+                <c:pt idx="1140">
+                  <c:v>-32367640</c:v>
+                </c:pt>
+                <c:pt idx="1141">
+                  <c:v>-32491480</c:v>
+                </c:pt>
+                <c:pt idx="1142">
+                  <c:v>-32613690</c:v>
+                </c:pt>
+                <c:pt idx="1143">
+                  <c:v>-32734820</c:v>
+                </c:pt>
+                <c:pt idx="1144">
+                  <c:v>-32855480</c:v>
+                </c:pt>
+                <c:pt idx="1145">
+                  <c:v>-32974520</c:v>
+                </c:pt>
+                <c:pt idx="1146">
+                  <c:v>-33093040</c:v>
+                </c:pt>
+                <c:pt idx="1147">
+                  <c:v>-33210490</c:v>
+                </c:pt>
+                <c:pt idx="1148">
+                  <c:v>-33326300</c:v>
+                </c:pt>
+                <c:pt idx="1149">
+                  <c:v>-33441560</c:v>
+                </c:pt>
+                <c:pt idx="1150">
+                  <c:v>-33555740</c:v>
+                </c:pt>
+                <c:pt idx="1151">
+                  <c:v>-33669430</c:v>
+                </c:pt>
+                <c:pt idx="1152">
+                  <c:v>-33780850</c:v>
+                </c:pt>
+                <c:pt idx="1153">
+                  <c:v>-33891730</c:v>
+                </c:pt>
+                <c:pt idx="1154">
+                  <c:v>-34002060</c:v>
+                </c:pt>
+                <c:pt idx="1155">
+                  <c:v>-34111330</c:v>
+                </c:pt>
+                <c:pt idx="1156">
+                  <c:v>-34218860</c:v>
+                </c:pt>
+                <c:pt idx="1157">
+                  <c:v>-34325860</c:v>
+                </c:pt>
+                <c:pt idx="1158">
+                  <c:v>-34431720</c:v>
+                </c:pt>
+                <c:pt idx="1159">
+                  <c:v>-34536980</c:v>
+                </c:pt>
+                <c:pt idx="1160">
+                  <c:v>-34641110</c:v>
+                </c:pt>
+                <c:pt idx="1161">
+                  <c:v>-34743570</c:v>
+                </c:pt>
+                <c:pt idx="1162">
+                  <c:v>-34845390</c:v>
+                </c:pt>
+                <c:pt idx="1163">
+                  <c:v>-34946140</c:v>
+                </c:pt>
+                <c:pt idx="1164">
+                  <c:v>-35046260</c:v>
+                </c:pt>
+                <c:pt idx="1165">
+                  <c:v>-35145200</c:v>
+                </c:pt>
+                <c:pt idx="1166">
+                  <c:v>-35242500</c:v>
+                </c:pt>
+                <c:pt idx="1167">
+                  <c:v>-35339060</c:v>
+                </c:pt>
+                <c:pt idx="1168">
+                  <c:v>-35434550</c:v>
+                </c:pt>
+                <c:pt idx="1169">
+                  <c:v>-35529400</c:v>
+                </c:pt>
+                <c:pt idx="1170">
+                  <c:v>-35623020</c:v>
+                </c:pt>
+                <c:pt idx="1171">
+                  <c:v>-35716100</c:v>
+                </c:pt>
+                <c:pt idx="1172">
+                  <c:v>-35807950</c:v>
+                </c:pt>
+                <c:pt idx="1173">
+                  <c:v>-35898060</c:v>
+                </c:pt>
+                <c:pt idx="1174">
+                  <c:v>-35986920</c:v>
+                </c:pt>
+                <c:pt idx="1175">
+                  <c:v>-36075170</c:v>
+                </c:pt>
+                <c:pt idx="1176">
+                  <c:v>-36162820</c:v>
+                </c:pt>
+                <c:pt idx="1177">
+                  <c:v>-36249230</c:v>
+                </c:pt>
+                <c:pt idx="1178">
+                  <c:v>-36334380</c:v>
+                </c:pt>
+                <c:pt idx="1179">
+                  <c:v>-36418910</c:v>
+                </c:pt>
+                <c:pt idx="1180">
+                  <c:v>-36502790</c:v>
+                </c:pt>
+                <c:pt idx="1181">
+                  <c:v>-36584870</c:v>
+                </c:pt>
+                <c:pt idx="1182">
+                  <c:v>-36665750</c:v>
+                </c:pt>
+                <c:pt idx="1183">
+                  <c:v>-36745940</c:v>
+                </c:pt>
+                <c:pt idx="1184">
+                  <c:v>-36824890</c:v>
+                </c:pt>
+                <c:pt idx="1185">
+                  <c:v>-36903110</c:v>
+                </c:pt>
+                <c:pt idx="1186">
+                  <c:v>-36980650</c:v>
+                </c:pt>
+                <c:pt idx="1187">
+                  <c:v>-37057490</c:v>
+                </c:pt>
+                <c:pt idx="1188">
+                  <c:v>-37132980</c:v>
+                </c:pt>
+                <c:pt idx="1189">
+                  <c:v>-37208420</c:v>
+                </c:pt>
+                <c:pt idx="1190">
+                  <c:v>-37282480</c:v>
+                </c:pt>
+                <c:pt idx="1191">
+                  <c:v>-37355300</c:v>
+                </c:pt>
+                <c:pt idx="1192">
+                  <c:v>-37427410</c:v>
+                </c:pt>
+                <c:pt idx="1193">
+                  <c:v>-37499320</c:v>
+                </c:pt>
+                <c:pt idx="1194">
+                  <c:v>-37570500</c:v>
+                </c:pt>
+                <c:pt idx="1195">
+                  <c:v>-37639820</c:v>
+                </c:pt>
+                <c:pt idx="1196">
+                  <c:v>-37709510</c:v>
+                </c:pt>
+                <c:pt idx="1197">
+                  <c:v>-37777970</c:v>
+                </c:pt>
+                <c:pt idx="1198">
+                  <c:v>-37845060</c:v>
+                </c:pt>
+                <c:pt idx="1199">
+                  <c:v>-37911960</c:v>
+                </c:pt>
+                <c:pt idx="1200">
+                  <c:v>-37977560</c:v>
+                </c:pt>
+                <c:pt idx="1201">
+                  <c:v>-38042350</c:v>
+                </c:pt>
+                <c:pt idx="1202">
+                  <c:v>-38106470</c:v>
+                </c:pt>
+                <c:pt idx="1203">
+                  <c:v>-38169790</c:v>
+                </c:pt>
+                <c:pt idx="1204">
+                  <c:v>-38232340</c:v>
+                </c:pt>
+                <c:pt idx="1205">
+                  <c:v>-38293560</c:v>
+                </c:pt>
+                <c:pt idx="1206">
+                  <c:v>-38354010</c:v>
+                </c:pt>
+                <c:pt idx="1207">
+                  <c:v>-38414320</c:v>
+                </c:pt>
+                <c:pt idx="1208">
+                  <c:v>-38472660</c:v>
+                </c:pt>
+                <c:pt idx="1209">
+                  <c:v>-38531380</c:v>
+                </c:pt>
+                <c:pt idx="1210">
+                  <c:v>-38588750</c:v>
+                </c:pt>
+                <c:pt idx="1211">
+                  <c:v>-38644700</c:v>
+                </c:pt>
+                <c:pt idx="1212">
+                  <c:v>-38700540</c:v>
+                </c:pt>
+                <c:pt idx="1213">
+                  <c:v>-38754980</c:v>
+                </c:pt>
+                <c:pt idx="1214">
+                  <c:v>-38808610</c:v>
+                </c:pt>
+                <c:pt idx="1215">
+                  <c:v>-38862070</c:v>
+                </c:pt>
+                <c:pt idx="1216">
+                  <c:v>-38914140</c:v>
+                </c:pt>
+                <c:pt idx="1217">
+                  <c:v>-38965990</c:v>
+                </c:pt>
+                <c:pt idx="1218">
+                  <c:v>-39016460</c:v>
+                </c:pt>
+                <c:pt idx="1219">
+                  <c:v>-39066160</c:v>
+                </c:pt>
+                <c:pt idx="1220">
+                  <c:v>-39115610</c:v>
+                </c:pt>
+                <c:pt idx="1221">
+                  <c:v>-39163600</c:v>
+                </c:pt>
+                <c:pt idx="1222">
+                  <c:v>-39210300</c:v>
+                </c:pt>
+                <c:pt idx="1223">
+                  <c:v>-39256720</c:v>
+                </c:pt>
+                <c:pt idx="1224">
+                  <c:v>-39302330</c:v>
+                </c:pt>
+                <c:pt idx="1225">
+                  <c:v>-39347140</c:v>
+                </c:pt>
+                <c:pt idx="1226">
+                  <c:v>-39391120</c:v>
+                </c:pt>
+                <c:pt idx="1227">
+                  <c:v>-39433670</c:v>
+                </c:pt>
+                <c:pt idx="1228">
+                  <c:v>-39476020</c:v>
+                </c:pt>
+                <c:pt idx="1229">
+                  <c:v>-39516930</c:v>
+                </c:pt>
+                <c:pt idx="1230">
+                  <c:v>-39557540</c:v>
+                </c:pt>
+                <c:pt idx="1231">
+                  <c:v>-39597420</c:v>
+                </c:pt>
+                <c:pt idx="1232">
+                  <c:v>-39635820</c:v>
+                </c:pt>
+                <c:pt idx="1233">
+                  <c:v>-39673920</c:v>
+                </c:pt>
+                <c:pt idx="1234">
+                  <c:v>-39710660</c:v>
+                </c:pt>
+                <c:pt idx="1235">
+                  <c:v>-39747120</c:v>
+                </c:pt>
+                <c:pt idx="1236">
+                  <c:v>-39782140</c:v>
+                </c:pt>
+                <c:pt idx="1237">
+                  <c:v>-39817520</c:v>
+                </c:pt>
+                <c:pt idx="1238">
+                  <c:v>-39850810</c:v>
+                </c:pt>
+                <c:pt idx="1239">
+                  <c:v>-39883310</c:v>
+                </c:pt>
+                <c:pt idx="1240">
+                  <c:v>-39915540</c:v>
+                </c:pt>
+                <c:pt idx="1241">
+                  <c:v>-39946320</c:v>
+                </c:pt>
+                <c:pt idx="1242">
+                  <c:v>-39976820</c:v>
+                </c:pt>
+                <c:pt idx="1243">
+                  <c:v>-40005830</c:v>
+                </c:pt>
+                <c:pt idx="1244">
+                  <c:v>-40034600</c:v>
+                </c:pt>
+                <c:pt idx="1245">
+                  <c:v>-40062510</c:v>
+                </c:pt>
+                <c:pt idx="1246">
+                  <c:v>-40089540</c:v>
+                </c:pt>
+                <c:pt idx="1247">
+                  <c:v>-40141980</c:v>
+                </c:pt>
+                <c:pt idx="1248">
+                  <c:v>-40190910</c:v>
+                </c:pt>
+                <c:pt idx="1249">
+                  <c:v>-40236270</c:v>
+                </c:pt>
+                <c:pt idx="1250">
+                  <c:v>-40278130</c:v>
+                </c:pt>
+                <c:pt idx="1251">
+                  <c:v>-40317000</c:v>
+                </c:pt>
+                <c:pt idx="1252">
+                  <c:v>-40351710</c:v>
+                </c:pt>
+                <c:pt idx="1253">
+                  <c:v>-40383380</c:v>
+                </c:pt>
+                <c:pt idx="1254">
+                  <c:v>-40411420</c:v>
+                </c:pt>
+                <c:pt idx="1255">
+                  <c:v>-40435800</c:v>
+                </c:pt>
+                <c:pt idx="1256">
+                  <c:v>-40456580</c:v>
+                </c:pt>
+                <c:pt idx="1257">
+                  <c:v>-40474830</c:v>
+                </c:pt>
+                <c:pt idx="1258">
+                  <c:v>-40490040</c:v>
+                </c:pt>
+                <c:pt idx="1259">
+                  <c:v>-40501510</c:v>
+                </c:pt>
+                <c:pt idx="1260">
+                  <c:v>-40509280</c:v>
+                </c:pt>
+                <c:pt idx="1261">
+                  <c:v>-40513260</c:v>
+                </c:pt>
+                <c:pt idx="1262">
+                  <c:v>-40514070</c:v>
+                </c:pt>
+                <c:pt idx="1263">
+                  <c:v>-40511130</c:v>
+                </c:pt>
+                <c:pt idx="1264">
+                  <c:v>-40505620</c:v>
+                </c:pt>
+                <c:pt idx="1265">
+                  <c:v>-40496860</c:v>
+                </c:pt>
+                <c:pt idx="1266">
+                  <c:v>-40483720</c:v>
+                </c:pt>
+                <c:pt idx="1267">
+                  <c:v>-40467320</c:v>
+                </c:pt>
+                <c:pt idx="1268">
+                  <c:v>-40448210</c:v>
+                </c:pt>
+                <c:pt idx="1269">
+                  <c:v>-40425240</c:v>
+                </c:pt>
+                <c:pt idx="1270">
+                  <c:v>-40398380</c:v>
+                </c:pt>
+                <c:pt idx="1271">
+                  <c:v>-40368730</c:v>
+                </c:pt>
+                <c:pt idx="1272">
+                  <c:v>-40336900</c:v>
+                </c:pt>
+                <c:pt idx="1273">
+                  <c:v>-40301670</c:v>
+                </c:pt>
+                <c:pt idx="1274">
+                  <c:v>-40264200</c:v>
+                </c:pt>
+                <c:pt idx="1275">
+                  <c:v>-40222700</c:v>
+                </c:pt>
+                <c:pt idx="1276">
+                  <c:v>-40179560</c:v>
+                </c:pt>
+                <c:pt idx="1277">
+                  <c:v>-40132930</c:v>
+                </c:pt>
+                <c:pt idx="1278">
+                  <c:v>-40083420</c:v>
+                </c:pt>
+                <c:pt idx="1279">
+                  <c:v>-40031700</c:v>
+                </c:pt>
+                <c:pt idx="1280">
+                  <c:v>-39977040</c:v>
+                </c:pt>
+                <c:pt idx="1281">
+                  <c:v>-39918880</c:v>
+                </c:pt>
+                <c:pt idx="1282">
+                  <c:v>-39858350</c:v>
+                </c:pt>
+                <c:pt idx="1283">
+                  <c:v>-39794340</c:v>
+                </c:pt>
+                <c:pt idx="1284">
+                  <c:v>-39728580</c:v>
+                </c:pt>
+                <c:pt idx="1285">
+                  <c:v>-39659280</c:v>
+                </c:pt>
+                <c:pt idx="1286">
+                  <c:v>-39587010</c:v>
+                </c:pt>
+                <c:pt idx="1287">
+                  <c:v>-39512370</c:v>
+                </c:pt>
+                <c:pt idx="1288">
+                  <c:v>-39434100</c:v>
+                </c:pt>
+                <c:pt idx="1289">
+                  <c:v>-39353420</c:v>
+                </c:pt>
+                <c:pt idx="1290">
+                  <c:v>-39269760</c:v>
+                </c:pt>
+                <c:pt idx="1291">
+                  <c:v>-39183710</c:v>
+                </c:pt>
+                <c:pt idx="1292">
+                  <c:v>-39094610</c:v>
+                </c:pt>
+                <c:pt idx="1293">
+                  <c:v>-39002430</c:v>
+                </c:pt>
+                <c:pt idx="1294">
+                  <c:v>-38907250</c:v>
+                </c:pt>
+                <c:pt idx="1295">
+                  <c:v>-38809600</c:v>
+                </c:pt>
+                <c:pt idx="1296">
+                  <c:v>-38708860</c:v>
+                </c:pt>
+                <c:pt idx="1297">
+                  <c:v>-38605070</c:v>
+                </c:pt>
+                <c:pt idx="1298">
+                  <c:v>-38498160</c:v>
+                </c:pt>
+                <c:pt idx="1299">
+                  <c:v>-38388770</c:v>
+                </c:pt>
+                <c:pt idx="1300">
+                  <c:v>-38276830</c:v>
+                </c:pt>
+                <c:pt idx="1301">
+                  <c:v>-38161220</c:v>
+                </c:pt>
+                <c:pt idx="1302">
+                  <c:v>-38043630</c:v>
+                </c:pt>
+                <c:pt idx="1303">
+                  <c:v>-37922240</c:v>
+                </c:pt>
+                <c:pt idx="1304">
+                  <c:v>-37798420</c:v>
+                </c:pt>
+                <c:pt idx="1305">
+                  <c:v>-37671920</c:v>
+                </c:pt>
+                <c:pt idx="1306">
+                  <c:v>-37541710</c:v>
+                </c:pt>
+                <c:pt idx="1307">
+                  <c:v>-37409540</c:v>
+                </c:pt>
+                <c:pt idx="1308">
+                  <c:v>-37274100</c:v>
+                </c:pt>
+                <c:pt idx="1309">
+                  <c:v>-37136110</c:v>
+                </c:pt>
+                <c:pt idx="1310">
+                  <c:v>-36994910</c:v>
+                </c:pt>
+                <c:pt idx="1311">
+                  <c:v>-36851100</c:v>
+                </c:pt>
+                <c:pt idx="1312">
+                  <c:v>-36704660</c:v>
+                </c:pt>
+                <c:pt idx="1313">
+                  <c:v>-36554370</c:v>
+                </c:pt>
+                <c:pt idx="1314">
+                  <c:v>-36401390</c:v>
+                </c:pt>
+                <c:pt idx="1315">
+                  <c:v>-36245820</c:v>
+                </c:pt>
+                <c:pt idx="1316">
+                  <c:v>-36087570</c:v>
+                </c:pt>
+                <c:pt idx="1317">
+                  <c:v>-35926590</c:v>
+                </c:pt>
+                <c:pt idx="1318">
+                  <c:v>-35762380</c:v>
+                </c:pt>
+                <c:pt idx="1319">
+                  <c:v>-35594850</c:v>
+                </c:pt>
+                <c:pt idx="1320">
+                  <c:v>-35425260</c:v>
+                </c:pt>
+                <c:pt idx="1321">
+                  <c:v>-35252320</c:v>
+                </c:pt>
+                <c:pt idx="1322">
+                  <c:v>-35076670</c:v>
+                </c:pt>
+                <c:pt idx="1323">
+                  <c:v>-34897710</c:v>
+                </c:pt>
+                <c:pt idx="1324">
+                  <c:v>-34715950</c:v>
+                </c:pt>
+                <c:pt idx="1325">
+                  <c:v>-34531550</c:v>
+                </c:pt>
+                <c:pt idx="1326">
+                  <c:v>-34343660</c:v>
+                </c:pt>
+                <c:pt idx="1327">
+                  <c:v>-34153730</c:v>
+                </c:pt>
+                <c:pt idx="1328">
+                  <c:v>-33960400</c:v>
+                </c:pt>
+                <c:pt idx="1329">
+                  <c:v>-33764260</c:v>
+                </c:pt>
+                <c:pt idx="1330">
+                  <c:v>-33566030</c:v>
+                </c:pt>
+                <c:pt idx="1331">
+                  <c:v>-33364300</c:v>
+                </c:pt>
+                <c:pt idx="1332">
+                  <c:v>-33159790</c:v>
+                </c:pt>
+                <c:pt idx="1333">
+                  <c:v>-32952460</c:v>
+                </c:pt>
+                <c:pt idx="1334">
+                  <c:v>-32741780</c:v>
+                </c:pt>
+                <c:pt idx="1335">
+                  <c:v>-32528850</c:v>
+                </c:pt>
+                <c:pt idx="1336">
+                  <c:v>-32312500</c:v>
+                </c:pt>
+                <c:pt idx="1337">
+                  <c:v>-32092590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ServerSubsampling_artefakte!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dekomprimiert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ServerSubsampling_artefakte!$A$2:$A$537</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="536"/>
+                <c:pt idx="0">
+                  <c:v>-517611300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-465517200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-397283500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-304612700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-190443100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-49275630</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>211356000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>425047000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>493815200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>546646100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>560434000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ServerSubsampling_artefakte!$B$2:$B$576</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="575"/>
+                <c:pt idx="0">
+                  <c:v>-124471200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-74079520</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-28426030</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12560530</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40646990</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49353830</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10963920</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-36162820</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-40425240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-35076670</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-32092590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="311972112"/>
+        <c:axId val="311961920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="311972112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="570434000"/>
+          <c:min val="-527611300.00000006"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311961920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="311961920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311972112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43136930775964866"/>
+          <c:y val="0.86983816935748015"/>
+          <c:w val="0.21690403433934405"/>
+          <c:h val="0.13016183064251999"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -9536,6 +18006,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -9547,9 +18533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>53008</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>583095</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>119270</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9563,6 +18549,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>496956</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>178902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>192158</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125894</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9836,8 +18852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
